--- a/BackTest/2019-10-16 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-16 BackTest HDAC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.400000000000006</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>81.8181818181817</v>
+      </c>
       <c r="L12" t="n">
         <v>38.29</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.400000000000006</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>77.7777777777776</v>
+      </c>
       <c r="L13" t="n">
         <v>38.38</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.400000000000006</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>77.7777777777776</v>
+      </c>
       <c r="L14" t="n">
         <v>38.45</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.5</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>74.99999999999956</v>
+      </c>
       <c r="L15" t="n">
         <v>38.52999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.5</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
       <c r="L16" t="n">
         <v>38.59</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.5</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>38.66</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.799999999999997</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>38.69</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.099999999999994</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.28571428571371</v>
+      </c>
       <c r="L19" t="n">
         <v>38.72</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.399999999999991</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-20.00000000000057</v>
+      </c>
       <c r="L20" t="n">
         <v>38.7</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.599999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>38.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-25.00000000000044</v>
+      </c>
       <c r="L22" t="n">
         <v>38.66</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.100000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>21.42857142857145</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L23" t="n">
         <v>38.63</v>
@@ -1466,7 +1488,7 @@
         <v>3.299999999999997</v>
       </c>
       <c r="K24" t="n">
-        <v>7.142857142857252</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L24" t="n">
         <v>38.58</v>
@@ -1515,7 +1537,7 @@
         <v>3.399999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>3.448275862069016</v>
+        <v>-36.8421052631577</v>
       </c>
       <c r="L25" t="n">
         <v>38.51000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-29.7297297297298</v>
+        <v>-58.6206896551723</v>
       </c>
       <c r="L26" t="n">
         <v>38.34</v>
@@ -1613,7 +1635,7 @@
         <v>4.699999999999996</v>
       </c>
       <c r="K27" t="n">
-        <v>-17.94871794871806</v>
+        <v>-37.93103448275869</v>
       </c>
       <c r="L27" t="n">
         <v>38.2</v>
@@ -1662,7 +1684,7 @@
         <v>4.699999999999996</v>
       </c>
       <c r="K28" t="n">
-        <v>-21.05263157894754</v>
+        <v>-53.84615384615377</v>
       </c>
       <c r="L28" t="n">
         <v>38.09</v>
@@ -1711,7 +1733,7 @@
         <v>5.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.97674418604645</v>
+        <v>-9.677419354838591</v>
       </c>
       <c r="L29" t="n">
         <v>38.02999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>-21.73913043478263</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L30" t="n">
         <v>37.95</v>
@@ -1809,7 +1831,7 @@
         <v>6.100000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>-23.40425531914899</v>
+        <v>-22.58064516129017</v>
       </c>
       <c r="L31" t="n">
         <v>37.84</v>
@@ -1860,7 +1882,7 @@
         <v>6.300000000000004</v>
       </c>
       <c r="K32" t="n">
-        <v>-26.53061224489806</v>
+        <v>-31.24999999999997</v>
       </c>
       <c r="L32" t="n">
         <v>37.74999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>6.300000000000004</v>
       </c>
       <c r="K33" t="n">
-        <v>-26.53061224489806</v>
+        <v>-26.66666666666674</v>
       </c>
       <c r="L33" t="n">
         <v>37.64999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>6.300000000000004</v>
       </c>
       <c r="K34" t="n">
-        <v>-26.53061224489806</v>
+        <v>-24.13793103448281</v>
       </c>
       <c r="L34" t="n">
         <v>37.56999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K35" t="n">
-        <v>-21.56862745098024</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L35" t="n">
         <v>37.52999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K36" t="n">
-        <v>-21.56862745098024</v>
+        <v>15.78947368421064</v>
       </c>
       <c r="L36" t="n">
         <v>37.58999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>6.700000000000003</v>
       </c>
       <c r="K37" t="n">
-        <v>-19.23076923076922</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L37" t="n">
         <v>37.62999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>6.700000000000003</v>
       </c>
       <c r="K38" t="n">
-        <v>-14.28571428571433</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L38" t="n">
         <v>37.66999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>6.700000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>-21.73913043478257</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L39" t="n">
         <v>37.63</v>
@@ -2268,7 +2290,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="K40" t="n">
-        <v>-11.11111111111108</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L40" t="n">
         <v>37.66</v>
@@ -2319,7 +2341,7 @@
         <v>7.200000000000003</v>
       </c>
       <c r="K41" t="n">
-        <v>-8.695652173913151</v>
+        <v>100</v>
       </c>
       <c r="L41" t="n">
         <v>37.73</v>
@@ -2370,7 +2392,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K42" t="n">
-        <v>6.666666666666751</v>
+        <v>100</v>
       </c>
       <c r="L42" t="n">
         <v>37.85</v>
@@ -2421,7 +2443,7 @@
         <v>7.800000000000004</v>
       </c>
       <c r="K43" t="n">
-        <v>10.63829787234042</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
         <v>38</v>
@@ -2472,7 +2494,7 @@
         <v>8</v>
       </c>
       <c r="K44" t="n">
-        <v>10.63829787234042</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L44" t="n">
         <v>38.13</v>
@@ -2523,7 +2545,7 @@
         <v>8</v>
       </c>
       <c r="K45" t="n">
-        <v>13.04347826086959</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L45" t="n">
         <v>38.23</v>
@@ -2574,7 +2596,7 @@
         <v>8.199999999999996</v>
       </c>
       <c r="K46" t="n">
-        <v>47.36842105263154</v>
+        <v>73.33333333333377</v>
       </c>
       <c r="L46" t="n">
         <v>38.35</v>
@@ -2625,7 +2647,7 @@
         <v>8.499999999999993</v>
       </c>
       <c r="K47" t="n">
-        <v>31.57894736842115</v>
+        <v>44.44444444444493</v>
       </c>
       <c r="L47" t="n">
         <v>38.43</v>
@@ -2676,7 +2698,7 @@
         <v>8.599999999999994</v>
       </c>
       <c r="K48" t="n">
-        <v>28.20512820512825</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L48" t="n">
         <v>38.5</v>
@@ -2727,7 +2749,7 @@
         <v>8.999999999999993</v>
       </c>
       <c r="K49" t="n">
-        <v>19.99999999999992</v>
+        <v>42.85714285714305</v>
       </c>
       <c r="L49" t="n">
         <v>38.61</v>
@@ -2778,7 +2800,7 @@
         <v>9.099999999999994</v>
       </c>
       <c r="K50" t="n">
-        <v>35.48387096774182</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L50" t="n">
         <v>38.69</v>
@@ -2829,7 +2851,7 @@
         <v>9.199999999999996</v>
       </c>
       <c r="K51" t="n">
-        <v>41.93548387096773</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L51" t="n">
         <v>38.74999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>9.299999999999997</v>
       </c>
       <c r="K52" t="n">
-        <v>53.33333333333351</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L52" t="n">
         <v>38.78999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>54.83870967741955</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L53" t="n">
         <v>38.81</v>
@@ -2982,7 +3004,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>54.83870967741955</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L54" t="n">
         <v>38.85</v>
@@ -3033,7 +3055,7 @@
         <v>9.599999999999994</v>
       </c>
       <c r="K55" t="n">
-        <v>53.3333333333334</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L55" t="n">
         <v>38.91</v>
@@ -3084,7 +3106,7 @@
         <v>9.699999999999989</v>
       </c>
       <c r="K56" t="n">
-        <v>48.38709677419386</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L56" t="n">
         <v>38.94</v>
@@ -3135,7 +3157,7 @@
         <v>9.799999999999983</v>
       </c>
       <c r="K57" t="n">
-        <v>48.38709677419386</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L57" t="n">
         <v>39.01000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>9.999999999999986</v>
       </c>
       <c r="K58" t="n">
-        <v>51.51515151515187</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L58" t="n">
         <v>39.11</v>
@@ -3237,7 +3259,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>52.9411764705886</v>
+        <v>80.00000000000099</v>
       </c>
       <c r="L59" t="n">
         <v>39.18000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K60" t="n">
-        <v>52.9411764705885</v>
+        <v>81.81818181818265</v>
       </c>
       <c r="L60" t="n">
         <v>39.28000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>43.75000000000053</v>
+        <v>63.63636363636505</v>
       </c>
       <c r="L61" t="n">
         <v>39.36000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>37.93103448275906</v>
+        <v>60.00000000000142</v>
       </c>
       <c r="L62" t="n">
         <v>39.43000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K63" t="n">
-        <v>30.76923076923125</v>
+        <v>60.00000000000142</v>
       </c>
       <c r="L63" t="n">
         <v>39.49</v>
@@ -3492,7 +3514,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K64" t="n">
-        <v>41.66666666666706</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L64" t="n">
         <v>39.55</v>
@@ -3543,7 +3565,7 @@
         <v>11.49999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>-2.857142857142915</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L65" t="n">
         <v>39.48</v>
@@ -3594,7 +3616,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K66" t="n">
-        <v>16.27906976744199</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L66" t="n">
         <v>39.52</v>
@@ -3645,7 +3667,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>25.00000000000009</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L67" t="n">
         <v>39.55</v>
@@ -3696,7 +3718,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K68" t="n">
-        <v>28.20512820512835</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>39.56000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>20.00000000000016</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L69" t="n">
         <v>39.56000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>12.79999999999998</v>
       </c>
       <c r="K70" t="n">
-        <v>13.51351351351356</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L70" t="n">
         <v>39.51000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>12.79999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>11.11111111111111</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L71" t="n">
         <v>39.47000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>12.89999999999998</v>
       </c>
       <c r="K72" t="n">
-        <v>11.11111111111111</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="L72" t="n">
         <v>39.44000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>11.11111111111111</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L73" t="n">
         <v>39.42000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>11.11111111111111</v>
+        <v>59.99999999999962</v>
       </c>
       <c r="L74" t="n">
         <v>39.40000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>5.882352941176569</v>
+        <v>-20</v>
       </c>
       <c r="L75" t="n">
         <v>39.49000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>9.090909090909012</v>
+        <v>-20</v>
       </c>
       <c r="L76" t="n">
         <v>39.48</v>
@@ -4155,7 +4177,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>3.03030303030307</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>39.46</v>
@@ -4206,7 +4228,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>-3.225806451612947</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>39.44</v>
@@ -4257,7 +4279,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L79" t="n">
         <v>39.44</v>
@@ -4308,7 +4330,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>-6.666666666666508</v>
+        <v>60</v>
       </c>
       <c r="L80" t="n">
         <v>39.47</v>
@@ -4359,7 +4381,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>-9.677419354838799</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>39.48</v>
@@ -4410,7 +4432,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>-9.677419354838799</v>
+        <v>-20</v>
       </c>
       <c r="L82" t="n">
         <v>39.48</v>
@@ -4461,7 +4483,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.677419354838799</v>
+        <v>-20</v>
       </c>
       <c r="L83" t="n">
         <v>39.46999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>-15.1515151515151</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L84" t="n">
         <v>39.43999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>11.99999999999982</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L85" t="n">
         <v>39.37999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>14.19999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>-52.94117647058785</v>
+        <v>-63.63636363636317</v>
       </c>
       <c r="L86" t="n">
         <v>39.29999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>14.49999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>-59.99999999999972</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L87" t="n">
         <v>39.19999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>-27.99999999999995</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L88" t="n">
         <v>39.14999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>-27.99999999999995</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L89" t="n">
         <v>39.07999999999998</v>
@@ -4818,7 +4840,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>-18.18181818181803</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>39.00999999999998</v>
@@ -4869,7 +4891,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>-13.04347826086938</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L91" t="n">
         <v>38.96999999999998</v>
@@ -4920,7 +4942,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>-18.18181818181803</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L92" t="n">
         <v>38.92999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>15.2</v>
       </c>
       <c r="K93" t="n">
-        <v>-18.18181818181803</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L93" t="n">
         <v>38.89999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>15.2</v>
       </c>
       <c r="K94" t="n">
-        <v>-18.18181818181803</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L94" t="n">
         <v>38.88999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>15.2</v>
       </c>
       <c r="K95" t="n">
-        <v>-18.18181818181803</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L95" t="n">
         <v>38.91</v>
@@ -5124,7 +5146,7 @@
         <v>15.3</v>
       </c>
       <c r="K96" t="n">
-        <v>-21.7391304347825</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L96" t="n">
         <v>38.94</v>
@@ -5175,7 +5197,7 @@
         <v>15.9</v>
       </c>
       <c r="K97" t="n">
-        <v>-35.71428571428557</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L97" t="n">
         <v>38.94</v>
@@ -5226,7 +5248,7 @@
         <v>16</v>
       </c>
       <c r="K98" t="n">
-        <v>-37.93103448275851</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L98" t="n">
         <v>38.88</v>
@@ -5277,7 +5299,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>-29.03225806451594</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L99" t="n">
         <v>38.86</v>
@@ -5328,7 +5350,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>-29.03225806451594</v>
+        <v>-23.07692307692266</v>
       </c>
       <c r="L100" t="n">
         <v>38.84</v>
@@ -5379,7 +5401,7 @@
         <v>16.50000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>-26.66666666666644</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L101" t="n">
         <v>38.8</v>
@@ -5430,7 +5452,7 @@
         <v>16.60000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>-29.03225806451594</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L102" t="n">
         <v>38.75000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>-35.29411764705856</v>
+        <v>-52.94117647058785</v>
       </c>
       <c r="L103" t="n">
         <v>38.66</v>
@@ -5532,7 +5554,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>-31.24999999999983</v>
+        <v>-52.94117647058785</v>
       </c>
       <c r="L104" t="n">
         <v>38.57</v>
@@ -5583,7 +5605,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>-26.66666666666644</v>
+        <v>-52.94117647058785</v>
       </c>
       <c r="L105" t="n">
         <v>38.47</v>
@@ -5634,7 +5656,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>-24.13793103448269</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L106" t="n">
         <v>38.37</v>
@@ -5685,7 +5707,7 @@
         <v>17.20000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>-11.11111111111093</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L107" t="n">
         <v>38.34</v>
@@ -5736,7 +5758,7 @@
         <v>17.30000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>-30.43478260869522</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L108" t="n">
         <v>38.33</v>
@@ -5787,7 +5809,7 @@
         <v>17.70000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>-11.11111111111093</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L109" t="n">
         <v>38.32000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>18.10000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-22.58064516129007</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L110" t="n">
         <v>38.27</v>
@@ -5889,7 +5911,7 @@
         <v>18.10000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>-26.66666666666644</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L111" t="n">
         <v>38.23</v>
@@ -5940,7 +5962,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>-15.1515151515151</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L112" t="n">
         <v>38.23</v>
@@ -5991,7 +6013,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>-15.1515151515151</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L113" t="n">
         <v>38.27</v>
@@ -6042,7 +6064,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-20</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L114" t="n">
         <v>38.29000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>18.80000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-22.22222222222224</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L115" t="n">
         <v>38.31</v>
@@ -6144,7 +6166,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>-22.22222222222209</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L116" t="n">
         <v>38.33</v>
@@ -6195,7 +6217,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>-9.677419354838591</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L117" t="n">
         <v>38.33</v>
@@ -6246,7 +6268,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-17.64705882352921</v>
+        <v>-52.94117647058828</v>
       </c>
       <c r="L118" t="n">
         <v>38.28</v>
@@ -6297,7 +6319,7 @@
         <v>19.5</v>
       </c>
       <c r="K119" t="n">
-        <v>-29.03225806451636</v>
+        <v>-28.57142857142915</v>
       </c>
       <c r="L119" t="n">
         <v>38.2</v>
@@ -6348,7 +6370,7 @@
         <v>19.7</v>
       </c>
       <c r="K120" t="n">
-        <v>-21.21212121212131</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L120" t="n">
         <v>38.18</v>
@@ -6399,7 +6421,7 @@
         <v>19.90000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>-23.52941176470602</v>
+        <v>-46.66666666666686</v>
       </c>
       <c r="L121" t="n">
         <v>38.14</v>
@@ -6450,7 +6472,7 @@
         <v>19.90000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>-21.21212121212131</v>
+        <v>-57.14285714285751</v>
       </c>
       <c r="L122" t="n">
         <v>38.07000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>20.10000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>-6.250000000000083</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>38.01000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>20.40000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>-14.28571428571428</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L124" t="n">
         <v>37.94</v>
@@ -6603,7 +6625,7 @@
         <v>20.50000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>-14.28571428571428</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L125" t="n">
         <v>37.87</v>
@@ -6654,7 +6676,7 @@
         <v>20.50000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>-11.7647058823529</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>37.81000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>20.50000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>-15.15151515151517</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L127" t="n">
         <v>37.76000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>20.50000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>-18.75000000000007</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L128" t="n">
         <v>37.75000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>20.60000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>-37.93103448275869</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L129" t="n">
         <v>37.72000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>20.60000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>-28.00000000000011</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L130" t="n">
         <v>37.67000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>20.80000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>-33.33333333333351</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L131" t="n">
         <v>37.62000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>21.10000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>-55.5555555555555</v>
+        <v>-100</v>
       </c>
       <c r="L132" t="n">
         <v>37.54000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>21.50000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>-40.0000000000001</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L133" t="n">
         <v>37.48</v>
@@ -7062,7 +7084,7 @@
         <v>21.7</v>
       </c>
       <c r="K134" t="n">
-        <v>-39.99999999999995</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>37.43000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>22.2</v>
       </c>
       <c r="K135" t="n">
-        <v>-17.64705882352929</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L135" t="n">
         <v>37.44</v>
@@ -7164,7 +7186,7 @@
         <v>22.3</v>
       </c>
       <c r="K136" t="n">
-        <v>-11.76470588235314</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L136" t="n">
         <v>37.46</v>
@@ -7215,7 +7237,7 @@
         <v>22.59999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-16.66666666666677</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L137" t="n">
         <v>37.45</v>
@@ -7266,7 +7288,7 @@
         <v>22.59999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>-6.250000000000111</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>37.44</v>
@@ -7317,7 +7339,7 @@
         <v>22.59999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>-9.677419354838635</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>37.44</v>
@@ -7368,7 +7390,7 @@
         <v>22.8</v>
       </c>
       <c r="K140" t="n">
-        <v>-9.677419354838635</v>
+        <v>20.00000000000043</v>
       </c>
       <c r="L140" t="n">
         <v>37.45999999999999</v>
@@ -7419,7 +7441,7 @@
         <v>22.8</v>
       </c>
       <c r="K141" t="n">
-        <v>-3.44827586206878</v>
+        <v>41.17647058823574</v>
       </c>
       <c r="L141" t="n">
         <v>37.49999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>22.8</v>
       </c>
       <c r="K142" t="n">
-        <v>-3.44827586206878</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L142" t="n">
         <v>37.56999999999999</v>
@@ -7521,7 +7543,7 @@
         <v>22.8</v>
       </c>
       <c r="K143" t="n">
-        <v>-11.11111111111105</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L143" t="n">
         <v>37.59999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>22.9</v>
       </c>
       <c r="K144" t="n">
-        <v>-4.000000000000068</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L144" t="n">
         <v>37.64</v>
@@ -7623,7 +7645,7 @@
         <v>23.1</v>
       </c>
       <c r="K145" t="n">
-        <v>-7.692307692307819</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L145" t="n">
         <v>37.61</v>
@@ -7674,7 +7696,7 @@
         <v>23.2</v>
       </c>
       <c r="K146" t="n">
-        <v>-3.703703703703762</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>37.58</v>
@@ -7725,7 +7747,7 @@
         <v>23.3</v>
       </c>
       <c r="K147" t="n">
-        <v>-7.142857142857252</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L147" t="n">
         <v>37.56999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>23.7</v>
       </c>
       <c r="K148" t="n">
-        <v>6.249999999999875</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L148" t="n">
         <v>37.59999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>23.7</v>
       </c>
       <c r="K149" t="n">
-        <v>9.677419354838635</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L149" t="n">
         <v>37.63</v>
@@ -7878,7 +7900,7 @@
         <v>23.8</v>
       </c>
       <c r="K150" t="n">
-        <v>6.250000000000111</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>37.63</v>
@@ -7929,7 +7951,7 @@
         <v>23.9</v>
       </c>
       <c r="K151" t="n">
-        <v>9.677419354838888</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L151" t="n">
         <v>37.62</v>
@@ -7980,7 +8002,7 @@
         <v>24.4</v>
       </c>
       <c r="K152" t="n">
-        <v>3.030303030303082</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L152" t="n">
         <v>37.56</v>
@@ -8031,7 +8053,7 @@
         <v>24.59999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>-3.225806451612962</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L153" t="n">
         <v>37.52</v>
@@ -8082,7 +8104,7 @@
         <v>24.69999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>-12.49999999999983</v>
       </c>
       <c r="L154" t="n">
         <v>37.48</v>
@@ -8133,7 +8155,7 @@
         <v>24.69999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>-20.00000000000011</v>
+        <v>-20</v>
       </c>
       <c r="L155" t="n">
         <v>37.46</v>
@@ -8184,7 +8206,7 @@
         <v>24.79999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>-27.99999999999991</v>
+        <v>-20</v>
       </c>
       <c r="L156" t="n">
         <v>37.42</v>
@@ -8235,7 +8257,7 @@
         <v>24.89999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>-21.73913043478263</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L157" t="n">
         <v>37.38000000000001</v>
@@ -8286,7 +8308,7 @@
         <v>25.19999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>-7.692307692307819</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L158" t="n">
         <v>37.33000000000001</v>
@@ -8337,7 +8359,7 @@
         <v>25.49999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>-17.24137931034488</v>
+        <v>-41.17647058823574</v>
       </c>
       <c r="L159" t="n">
         <v>37.25000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>25.69999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>-17.24137931034488</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L160" t="n">
         <v>37.2</v>
@@ -8439,7 +8461,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K161" t="n">
-        <v>-13.33333333333359</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L161" t="n">
         <v>37.17</v>
@@ -8490,7 +8512,7 @@
         <v>25.89999999999998</v>
       </c>
       <c r="K162" t="n">
-        <v>-16.12903225806462</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="L162" t="n">
         <v>37.18</v>
@@ -8541,7 +8563,7 @@
         <v>25.99999999999997</v>
       </c>
       <c r="K163" t="n">
-        <v>-12.50000000000028</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L163" t="n">
         <v>37.18</v>
@@ -8592,7 +8614,7 @@
         <v>25.99999999999997</v>
       </c>
       <c r="K164" t="n">
-        <v>-9.677419354838932</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L164" t="n">
         <v>37.19</v>
@@ -8643,7 +8665,7 @@
         <v>26.09999999999997</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>23.07692307692316</v>
       </c>
       <c r="L165" t="n">
         <v>37.21</v>
@@ -8694,7 +8716,7 @@
         <v>26.19999999999997</v>
       </c>
       <c r="K166" t="n">
-        <v>-6.666666666666825</v>
+        <v>23.07692307692316</v>
       </c>
       <c r="L166" t="n">
         <v>37.23</v>
@@ -8745,7 +8767,7 @@
         <v>26.29999999999998</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L167" t="n">
         <v>37.27</v>
@@ -8796,7 +8818,7 @@
         <v>26.39999999999998</v>
       </c>
       <c r="K168" t="n">
-        <v>-18.5185185185187</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>37.27</v>
@@ -8847,7 +8869,7 @@
         <v>26.49999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>-14.28571428571436</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L169" t="n">
         <v>37.31</v>
@@ -8898,7 +8920,7 @@
         <v>26.59999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>-7.142857142857288</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L170" t="n">
         <v>37.34</v>
@@ -8949,7 +8971,7 @@
         <v>26.59999999999998</v>
       </c>
       <c r="K171" t="n">
-        <v>-3.703703703703782</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L171" t="n">
         <v>37.36</v>
@@ -9000,7 +9022,7 @@
         <v>26.69999999999998</v>
       </c>
       <c r="K172" t="n">
-        <v>13.04347826086954</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L172" t="n">
         <v>37.38</v>
@@ -9051,7 +9073,7 @@
         <v>26.79999999999998</v>
       </c>
       <c r="K173" t="n">
-        <v>9.090909090909268</v>
+        <v>25</v>
       </c>
       <c r="L173" t="n">
         <v>37.39999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>26.89999999999998</v>
       </c>
       <c r="K174" t="n">
-        <v>18.18181818181815</v>
+        <v>25</v>
       </c>
       <c r="L174" t="n">
         <v>37.42999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>26.89999999999998</v>
       </c>
       <c r="K175" t="n">
-        <v>18.18181818181815</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L175" t="n">
         <v>37.45</v>
@@ -9204,7 +9226,7 @@
         <v>27.09999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>13.04347826086946</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>37.45999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>27.19999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>21.73913043478263</v>
+        <v>25</v>
       </c>
       <c r="L177" t="n">
         <v>37.47</v>
@@ -9306,7 +9328,7 @@
         <v>27.19999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>10.00000000000014</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L178" t="n">
         <v>37.48999999999999</v>
@@ -9357,7 +9379,7 @@
         <v>27.19999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>29.41176470588231</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>37.5</v>
@@ -9408,7 +9430,7 @@
         <v>27.19999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>19.99999999999981</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>37.5</v>
@@ -9459,7 +9481,7 @@
         <v>27.29999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>20.00000000000019</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>37.51000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>27.29999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>28.57142857142821</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>37.53000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>27.29999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>37.54000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>27.49999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>37.52</v>
@@ -9714,7 +9736,7 @@
         <v>27.49999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>37.5</v>
@@ -9765,7 +9787,7 @@
         <v>27.59999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L187" t="n">
         <v>37.48</v>
@@ -9816,7 +9838,7 @@
         <v>27.8</v>
       </c>
       <c r="K188" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>37.48</v>
@@ -9867,7 +9889,7 @@
         <v>27.8</v>
       </c>
       <c r="K189" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>37.48</v>
@@ -9918,7 +9940,7 @@
         <v>28.09999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>-19.99999999999962</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L190" t="n">
         <v>37.45</v>
@@ -9969,7 +9991,7 @@
         <v>28.29999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>-5.88235294117652</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L191" t="n">
         <v>37.42999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>28.49999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>-11.11111111111085</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>37.38999999999999</v>
@@ -10071,7 +10093,7 @@
         <v>28.69999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>-5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>37.36999999999999</v>
@@ -10122,7 +10144,7 @@
         <v>28.89999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>-20</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L194" t="n">
         <v>37.34999999999999</v>
@@ -10173,7 +10195,7 @@
         <v>28.89999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>-20</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L195" t="n">
         <v>37.32999999999999</v>
@@ -10224,7 +10246,7 @@
         <v>28.89999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>-11.11111111111093</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="L196" t="n">
         <v>37.30999999999999</v>
@@ -10275,7 +10297,7 @@
         <v>28.89999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>-17.64705882352936</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L197" t="n">
         <v>37.29999999999999</v>
@@ -10326,7 +10348,7 @@
         <v>29.09999999999997</v>
       </c>
       <c r="K198" t="n">
-        <v>-5.263157894736961</v>
+        <v>-7.692307692307944</v>
       </c>
       <c r="L198" t="n">
         <v>37.28999999999998</v>
@@ -10377,7 +10399,7 @@
         <v>29.29999999999997</v>
       </c>
       <c r="K199" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>37.25999999999998</v>
@@ -10428,7 +10450,7 @@
         <v>29.29999999999997</v>
       </c>
       <c r="K200" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L200" t="n">
         <v>37.25999999999998</v>
@@ -10479,7 +10501,7 @@
         <v>29.49999999999996</v>
       </c>
       <c r="K201" t="n">
-        <v>-9.090909090909326</v>
+        <v>20</v>
       </c>
       <c r="L201" t="n">
         <v>37.25999999999998</v>
@@ -10530,7 +10552,7 @@
         <v>29.49999999999996</v>
       </c>
       <c r="K202" t="n">
-        <v>-9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>37.27999999999999</v>
@@ -10581,7 +10603,7 @@
         <v>29.49999999999996</v>
       </c>
       <c r="K203" t="n">
-        <v>-9.090909090909326</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>37.27999999999999</v>
@@ -10632,7 +10654,7 @@
         <v>29.49999999999996</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>37.29999999999998</v>
@@ -10683,7 +10705,7 @@
         <v>29.59999999999997</v>
       </c>
       <c r="K205" t="n">
-        <v>-4.761904761904891</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L205" t="n">
         <v>37.30999999999999</v>
@@ -10734,7 +10756,7 @@
         <v>29.59999999999997</v>
       </c>
       <c r="K206" t="n">
-        <v>-4.761904761904891</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L206" t="n">
         <v>37.31999999999999</v>
@@ -10785,7 +10807,7 @@
         <v>29.59999999999997</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L207" t="n">
         <v>37.32999999999999</v>
@@ -10836,7 +10858,7 @@
         <v>29.79999999999996</v>
       </c>
       <c r="K208" t="n">
-        <v>-20.00000000000028</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L208" t="n">
         <v>37.3</v>
@@ -10887,7 +10909,7 @@
         <v>29.99999999999996</v>
       </c>
       <c r="K209" t="n">
-        <v>-9.090909090909385</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L209" t="n">
         <v>37.31</v>
@@ -10938,7 +10960,7 @@
         <v>29.99999999999996</v>
       </c>
       <c r="K210" t="n">
-        <v>5.263157894736645</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L210" t="n">
         <v>37.32</v>
@@ -10989,7 +11011,7 @@
         <v>30.19999999999995</v>
       </c>
       <c r="K211" t="n">
-        <v>-15.78947368421068</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L211" t="n">
         <v>37.29000000000001</v>
@@ -11040,7 +11062,7 @@
         <v>30.29999999999995</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L212" t="n">
         <v>37.27</v>
@@ -11091,7 +11113,7 @@
         <v>30.29999999999995</v>
       </c>
       <c r="K213" t="n">
-        <v>-12.49999999999994</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L213" t="n">
         <v>37.25000000000001</v>
@@ -11142,7 +11164,7 @@
         <v>30.49999999999996</v>
       </c>
       <c r="K214" t="n">
-        <v>-12.50000000000033</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>37.21000000000001</v>
@@ -11193,7 +11215,7 @@
         <v>30.59999999999996</v>
       </c>
       <c r="K215" t="n">
-        <v>-17.64705882352985</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L215" t="n">
         <v>37.17</v>
@@ -11244,7 +11266,7 @@
         <v>30.79999999999996</v>
       </c>
       <c r="K216" t="n">
-        <v>-5.263157894736961</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L216" t="n">
         <v>37.15000000000001</v>
@@ -11295,7 +11317,7 @@
         <v>30.99999999999996</v>
       </c>
       <c r="K217" t="n">
-        <v>-14.28571428571458</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L217" t="n">
         <v>37.11</v>
@@ -11346,7 +11368,7 @@
         <v>30.99999999999996</v>
       </c>
       <c r="K218" t="n">
-        <v>-26.31578947368433</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L218" t="n">
         <v>37.09</v>
@@ -11397,7 +11419,7 @@
         <v>30.99999999999996</v>
       </c>
       <c r="K219" t="n">
-        <v>-17.64705882352971</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L219" t="n">
         <v>37.05</v>
@@ -11448,7 +11470,7 @@
         <v>31.19999999999997</v>
       </c>
       <c r="K220" t="n">
-        <v>-5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>37.02999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>31.39999999999997</v>
       </c>
       <c r="K221" t="n">
-        <v>-26.31578947368413</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L221" t="n">
         <v>37.00999999999999</v>
@@ -11550,7 +11572,7 @@
         <v>31.59999999999997</v>
       </c>
       <c r="K222" t="n">
-        <v>-33.33333333333311</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L222" t="n">
         <v>36.95999999999999</v>
@@ -11601,7 +11623,7 @@
         <v>31.59999999999997</v>
       </c>
       <c r="K223" t="n">
-        <v>-33.33333333333311</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L223" t="n">
         <v>36.90999999999999</v>
@@ -11652,7 +11674,7 @@
         <v>31.69999999999996</v>
       </c>
       <c r="K224" t="n">
-        <v>-27.27272727272739</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L224" t="n">
         <v>36.88999999999999</v>
@@ -11703,7 +11725,7 @@
         <v>31.69999999999996</v>
       </c>
       <c r="K225" t="n">
-        <v>-23.80952380952387</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L225" t="n">
         <v>36.88</v>
@@ -11754,7 +11776,7 @@
         <v>31.69999999999996</v>
       </c>
       <c r="K226" t="n">
-        <v>-23.80952380952387</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L226" t="n">
         <v>36.84999999999999</v>
@@ -11805,7 +11827,7 @@
         <v>31.89999999999996</v>
       </c>
       <c r="K227" t="n">
-        <v>-30.4347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L227" t="n">
         <v>36.82</v>
@@ -11856,7 +11878,7 @@
         <v>32.09999999999995</v>
       </c>
       <c r="K228" t="n">
-        <v>-13.04347826086981</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L228" t="n">
         <v>36.81</v>
@@ -11907,7 +11929,7 @@
         <v>32.29999999999995</v>
       </c>
       <c r="K229" t="n">
-        <v>-30.4347826086956</v>
+        <v>-45.45454545454628</v>
       </c>
       <c r="L229" t="n">
         <v>36.78000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>32.29999999999995</v>
       </c>
       <c r="K230" t="n">
-        <v>-30.4347826086956</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L230" t="n">
         <v>36.73</v>
@@ -12009,7 +12031,7 @@
         <v>32.49999999999994</v>
       </c>
       <c r="K231" t="n">
-        <v>-13.04347826086981</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L231" t="n">
         <v>36.72000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>32.69999999999994</v>
       </c>
       <c r="K232" t="n">
-        <v>-25.00000000000022</v>
+        <v>-9.090909090909443</v>
       </c>
       <c r="L232" t="n">
         <v>36.71000000000002</v>
@@ -12111,7 +12133,7 @@
         <v>33.09999999999994</v>
       </c>
       <c r="K233" t="n">
-        <v>-7.142857142857288</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L233" t="n">
         <v>36.74000000000002</v>
@@ -12162,7 +12184,7 @@
         <v>33.09999999999994</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L234" t="n">
         <v>36.76000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>33.09999999999994</v>
       </c>
       <c r="K235" t="n">
-        <v>4.000000000000091</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L235" t="n">
         <v>36.78000000000002</v>
@@ -12264,7 +12286,7 @@
         <v>33.49999999999994</v>
       </c>
       <c r="K236" t="n">
-        <v>-18.5185185185187</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>36.76000000000001</v>
@@ -12315,7 +12337,7 @@
         <v>33.59999999999994</v>
       </c>
       <c r="K237" t="n">
-        <v>-7.692307692307608</v>
+        <v>-6.666666666666352</v>
       </c>
       <c r="L237" t="n">
         <v>36.77000000000001</v>
@@ -12366,7 +12388,7 @@
         <v>33.69999999999994</v>
       </c>
       <c r="K238" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>36.75000000000001</v>
@@ -12417,7 +12439,7 @@
         <v>33.79999999999994</v>
       </c>
       <c r="K239" t="n">
-        <v>-7.142857142857053</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L239" t="n">
         <v>36.76000000000001</v>
@@ -12468,7 +12490,7 @@
         <v>33.89999999999994</v>
       </c>
       <c r="K240" t="n">
-        <v>-18.5185185185187</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L240" t="n">
         <v>36.76000000000001</v>
@@ -12519,7 +12541,7 @@
         <v>33.89999999999994</v>
       </c>
       <c r="K241" t="n">
-        <v>-12.00000000000002</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>36.74000000000001</v>
@@ -12570,7 +12592,7 @@
         <v>34.19999999999995</v>
       </c>
       <c r="K242" t="n">
-        <v>-15.38461538461572</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L242" t="n">
         <v>36.71000000000001</v>
@@ -12621,7 +12643,7 @@
         <v>34.49999999999995</v>
       </c>
       <c r="K243" t="n">
-        <v>-3.448275862069033</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L243" t="n">
         <v>36.67000000000001</v>
@@ -12672,7 +12694,7 @@
         <v>34.69999999999995</v>
       </c>
       <c r="K244" t="n">
-        <v>-13.33333333333332</v>
+        <v>-37.49999999999972</v>
       </c>
       <c r="L244" t="n">
         <v>36.61000000000001</v>
@@ -12723,7 +12745,7 @@
         <v>34.79999999999995</v>
       </c>
       <c r="K245" t="n">
-        <v>-9.677419354838635</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L245" t="n">
         <v>36.56000000000001</v>
@@ -12774,7 +12796,7 @@
         <v>34.99999999999996</v>
       </c>
       <c r="K246" t="n">
-        <v>-15.15151515151517</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L246" t="n">
         <v>36.53000000000001</v>
@@ -12825,7 +12847,7 @@
         <v>35.19999999999996</v>
       </c>
       <c r="K247" t="n">
-        <v>-3.03030303030307</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L247" t="n">
         <v>36.51000000000001</v>
@@ -12876,7 +12898,7 @@
         <v>35.49999999999996</v>
       </c>
       <c r="K248" t="n">
-        <v>-17.64705882352921</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L248" t="n">
         <v>36.47000000000001</v>
@@ -12927,7 +12949,7 @@
         <v>35.69999999999995</v>
       </c>
       <c r="K249" t="n">
-        <v>-5.882352941176544</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L249" t="n">
         <v>36.44</v>
@@ -13029,7 +13051,7 @@
         <v>36.19999999999996</v>
       </c>
       <c r="K251" t="n">
-        <v>-13.51351351351345</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>36.41</v>
@@ -13080,7 +13102,7 @@
         <v>36.29999999999996</v>
       </c>
       <c r="K252" t="n">
-        <v>-5.5555555555556</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L252" t="n">
         <v>36.42</v>
@@ -13131,7 +13153,7 @@
         <v>36.39999999999996</v>
       </c>
       <c r="K253" t="n">
-        <v>-15.15151515151504</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L253" t="n">
         <v>36.41</v>
@@ -13182,7 +13204,7 @@
         <v>36.69999999999996</v>
       </c>
       <c r="K254" t="n">
-        <v>-22.222222222222</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L254" t="n">
         <v>36.39</v>
@@ -13233,7 +13255,7 @@
         <v>36.69999999999996</v>
       </c>
       <c r="K255" t="n">
-        <v>-22.222222222222</v>
+        <v>-5.882352941176126</v>
       </c>
       <c r="L255" t="n">
         <v>36.36</v>
@@ -13284,7 +13306,7 @@
         <v>36.69999999999996</v>
       </c>
       <c r="K256" t="n">
-        <v>-12.49999999999986</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L256" t="n">
         <v>36.34999999999999</v>
@@ -13335,7 +13357,7 @@
         <v>36.79999999999995</v>
       </c>
       <c r="K257" t="n">
-        <v>-12.50000000000011</v>
+        <v>7.692307692307272</v>
       </c>
       <c r="L257" t="n">
         <v>36.33</v>
@@ -13386,7 +13408,7 @@
         <v>36.99999999999996</v>
       </c>
       <c r="K258" t="n">
-        <v>-3.030303030303056</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L258" t="n">
         <v>36.36</v>
@@ -13437,7 +13459,7 @@
         <v>37.19999999999996</v>
       </c>
       <c r="K259" t="n">
-        <v>-11.76470588235304</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L259" t="n">
         <v>36.35</v>
@@ -13488,7 +13510,7 @@
         <v>37.39999999999996</v>
       </c>
       <c r="K260" t="n">
-        <v>-2.85714285714288</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L260" t="n">
         <v>36.34</v>
@@ -13539,7 +13561,7 @@
         <v>37.39999999999996</v>
       </c>
       <c r="K261" t="n">
-        <v>-2.85714285714288</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L261" t="n">
         <v>36.36</v>
@@ -13590,7 +13612,7 @@
         <v>37.39999999999996</v>
       </c>
       <c r="K262" t="n">
-        <v>6.250000000000055</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>36.37</v>
@@ -13641,7 +13663,7 @@
         <v>37.59999999999997</v>
       </c>
       <c r="K263" t="n">
-        <v>-9.677419354838799</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L263" t="n">
         <v>36.35</v>
@@ -13692,7 +13714,7 @@
         <v>37.79999999999997</v>
       </c>
       <c r="K264" t="n">
-        <v>3.225806451612933</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L264" t="n">
         <v>36.38</v>
@@ -13743,7 +13765,7 @@
         <v>37.89999999999997</v>
       </c>
       <c r="K265" t="n">
-        <v>-3.225806451612933</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L265" t="n">
         <v>36.4</v>
@@ -13896,7 +13918,7 @@
         <v>38.19999999999997</v>
       </c>
       <c r="K268" t="n">
-        <v>11.11111111111093</v>
+        <v>20</v>
       </c>
       <c r="L268" t="n">
         <v>36.43</v>
@@ -13947,7 +13969,7 @@
         <v>38.19999999999997</v>
       </c>
       <c r="K269" t="n">
-        <v>4.000000000000023</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>36.45</v>
@@ -13998,7 +14020,7 @@
         <v>38.39999999999998</v>
       </c>
       <c r="K270" t="n">
-        <v>4.000000000000023</v>
+        <v>20</v>
       </c>
       <c r="L270" t="n">
         <v>36.47</v>
@@ -14049,7 +14071,7 @@
         <v>38.59999999999997</v>
       </c>
       <c r="K271" t="n">
-        <v>24.99999999999993</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L271" t="n">
         <v>36.51</v>
@@ -14100,7 +14122,7 @@
         <v>39.09999999999997</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L272" t="n">
         <v>36.49999999999999</v>
@@ -14202,7 +14224,7 @@
         <v>39.19999999999997</v>
       </c>
       <c r="K274" t="n">
-        <v>11.99999999999982</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L274" t="n">
         <v>36.52</v>
@@ -14253,7 +14275,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K275" t="n">
-        <v>7.692307692307482</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L275" t="n">
         <v>36.52</v>
@@ -14304,7 +14326,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>7.692307692307482</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L276" t="n">
         <v>36.52999999999999</v>
@@ -14355,7 +14377,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>4.000000000000023</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L277" t="n">
         <v>36.51999999999999</v>
@@ -14406,7 +14428,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>-4.347826086956549</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L278" t="n">
         <v>36.50999999999998</v>
@@ -14457,7 +14479,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K279" t="n">
-        <v>4.761904761904794</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L279" t="n">
         <v>36.49999999999999</v>
@@ -14508,7 +14530,7 @@
         <v>39.39999999999998</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L280" t="n">
         <v>36.47999999999998</v>
@@ -14559,7 +14581,7 @@
         <v>39.49999999999998</v>
       </c>
       <c r="K281" t="n">
-        <v>-4.761904761904794</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>36.42999999999999</v>
@@ -14610,7 +14632,7 @@
         <v>39.49999999999998</v>
       </c>
       <c r="K282" t="n">
-        <v>-4.761904761904794</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L282" t="n">
         <v>36.42999999999999</v>
@@ -14661,7 +14683,7 @@
         <v>39.49999999999998</v>
       </c>
       <c r="K283" t="n">
-        <v>5.263157894736882</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L283" t="n">
         <v>36.41999999999998</v>
@@ -14712,7 +14734,7 @@
         <v>39.69999999999998</v>
       </c>
       <c r="K284" t="n">
-        <v>5.263157894736882</v>
+        <v>50</v>
       </c>
       <c r="L284" t="n">
         <v>36.42999999999999</v>
@@ -14763,7 +14785,7 @@
         <v>39.99999999999999</v>
       </c>
       <c r="K285" t="n">
-        <v>-4.761904761904794</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L285" t="n">
         <v>36.41999999999999</v>
@@ -14814,7 +14836,7 @@
         <v>40.19999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>9.09090909090915</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L286" t="n">
         <v>36.42999999999999</v>
@@ -14865,7 +14887,7 @@
         <v>40.29999999999999</v>
       </c>
       <c r="K287" t="n">
-        <v>-4.761904761904794</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>36.42999999999999</v>
@@ -14916,7 +14938,7 @@
         <v>40.29999999999999</v>
       </c>
       <c r="K288" t="n">
-        <v>-4.761904761904794</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>36.42999999999999</v>
@@ -14967,7 +14989,7 @@
         <v>40.29999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>-4.761904761904794</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L289" t="n">
         <v>36.42999999999999</v>
@@ -15018,7 +15040,7 @@
         <v>40.29999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>-15.78947368421064</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>36.41999999999999</v>
@@ -15069,7 +15091,7 @@
         <v>40.29999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>-29.41176470588206</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>36.41999999999999</v>
@@ -15171,7 +15193,7 @@
         <v>40.39999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L293" t="n">
         <v>36.42999999999999</v>
@@ -15222,7 +15244,7 @@
         <v>40.39999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L294" t="n">
         <v>36.41999999999999</v>
@@ -15273,7 +15295,7 @@
         <v>40.39999999999999</v>
       </c>
       <c r="K295" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>36.43999999999998</v>
@@ -15324,7 +15346,7 @@
         <v>40.39999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L296" t="n">
         <v>36.43999999999998</v>
@@ -15375,7 +15397,7 @@
         <v>40.39999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L297" t="n">
         <v>36.44999999999999</v>
@@ -15426,7 +15448,7 @@
         <v>40.49999999999999</v>
       </c>
       <c r="K298" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L298" t="n">
         <v>36.46999999999999</v>
@@ -15477,7 +15499,7 @@
         <v>40.49999999999999</v>
       </c>
       <c r="K299" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L299" t="n">
         <v>36.48999999999999</v>
@@ -15528,7 +15550,7 @@
         <v>40.59999999999999</v>
       </c>
       <c r="K300" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L300" t="n">
         <v>36.52</v>
@@ -15579,7 +15601,7 @@
         <v>40.59999999999999</v>
       </c>
       <c r="K301" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L301" t="n">
         <v>36.55</v>
@@ -15630,7 +15652,7 @@
         <v>40.8</v>
       </c>
       <c r="K302" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>36.56</v>
@@ -15681,7 +15703,7 @@
         <v>41</v>
       </c>
       <c r="K303" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>36.58</v>
@@ -15732,7 +15754,7 @@
         <v>41.2</v>
       </c>
       <c r="K304" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>36.58</v>
@@ -15783,7 +15805,7 @@
         <v>41.40000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L305" t="n">
         <v>36.6</v>
@@ -15834,7 +15856,7 @@
         <v>41.40000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L306" t="n">
         <v>36.62</v>
@@ -15885,7 +15907,7 @@
         <v>41.40000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>27.27272727272727</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L307" t="n">
         <v>36.64</v>
@@ -15936,7 +15958,7 @@
         <v>41.60000000000001</v>
       </c>
       <c r="K308" t="n">
-        <v>7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L308" t="n">
         <v>36.63</v>
@@ -15987,7 +16009,7 @@
         <v>41.80000000000001</v>
       </c>
       <c r="K309" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>36.63999999999999</v>
@@ -16038,7 +16060,7 @@
         <v>41.80000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
         <v>36.63999999999999</v>
@@ -16140,7 +16162,7 @@
         <v>41.80000000000001</v>
       </c>
       <c r="K312" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>36.65999999999999</v>
@@ -16191,7 +16213,7 @@
         <v>41.80000000000001</v>
       </c>
       <c r="K313" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L313" t="n">
         <v>36.65999999999999</v>
@@ -16242,7 +16264,7 @@
         <v>42.00000000000001</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L314" t="n">
         <v>36.65999999999999</v>
@@ -16293,7 +16315,7 @@
         <v>42.20000000000002</v>
       </c>
       <c r="K315" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>36.65999999999999</v>
@@ -16344,7 +16366,7 @@
         <v>42.40000000000002</v>
       </c>
       <c r="K316" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L316" t="n">
         <v>36.63999999999999</v>
@@ -16395,7 +16417,7 @@
         <v>42.60000000000002</v>
       </c>
       <c r="K317" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L317" t="n">
         <v>36.63999999999999</v>
@@ -16446,7 +16468,7 @@
         <v>42.60000000000002</v>
       </c>
       <c r="K318" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>36.65999999999999</v>
@@ -16497,7 +16519,7 @@
         <v>42.60000000000002</v>
       </c>
       <c r="K319" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>36.65999999999999</v>
@@ -16548,7 +16570,7 @@
         <v>42.70000000000002</v>
       </c>
       <c r="K320" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L320" t="n">
         <v>36.64999999999999</v>
@@ -16599,7 +16621,7 @@
         <v>42.80000000000003</v>
       </c>
       <c r="K321" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L321" t="n">
         <v>36.63</v>
@@ -16650,7 +16672,7 @@
         <v>43.00000000000003</v>
       </c>
       <c r="K322" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>36.63</v>
@@ -16701,7 +16723,7 @@
         <v>43.00000000000003</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L323" t="n">
         <v>36.63</v>
@@ -16752,7 +16774,7 @@
         <v>43.20000000000003</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L324" t="n">
         <v>36.63</v>
@@ -16803,7 +16825,7 @@
         <v>43.40000000000003</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L325" t="n">
         <v>36.63</v>
@@ -16854,7 +16876,7 @@
         <v>43.60000000000004</v>
       </c>
       <c r="K326" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L326" t="n">
         <v>36.63</v>
@@ -16905,7 +16927,7 @@
         <v>43.70000000000004</v>
       </c>
       <c r="K327" t="n">
-        <v>-13.04347826086956</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L327" t="n">
         <v>36.59999999999999</v>
@@ -16956,7 +16978,7 @@
         <v>44.00000000000004</v>
       </c>
       <c r="K328" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>36.59999999999999</v>
@@ -17007,7 +17029,7 @@
         <v>44.00000000000004</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L329" t="n">
         <v>36.59999999999999</v>
@@ -17058,7 +17080,7 @@
         <v>44.00000000000004</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L330" t="n">
         <v>36.60999999999999</v>
@@ -17160,7 +17182,7 @@
         <v>44.20000000000005</v>
       </c>
       <c r="K332" t="n">
-        <v>-8.333333333333332</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L332" t="n">
         <v>36.60999999999999</v>
@@ -17211,7 +17233,7 @@
         <v>44.40000000000005</v>
       </c>
       <c r="K333" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L333" t="n">
         <v>36.60999999999999</v>
@@ -17262,7 +17284,7 @@
         <v>44.40000000000005</v>
       </c>
       <c r="K334" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>36.62999999999999</v>
@@ -17313,7 +17335,7 @@
         <v>44.40000000000005</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L335" t="n">
         <v>36.62999999999999</v>
@@ -17364,7 +17386,7 @@
         <v>44.40000000000005</v>
       </c>
       <c r="K336" t="n">
-        <v>10</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L336" t="n">
         <v>36.64999999999999</v>
@@ -17466,7 +17488,7 @@
         <v>44.70000000000005</v>
       </c>
       <c r="K338" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L338" t="n">
         <v>36.64999999999999</v>
@@ -17517,7 +17539,7 @@
         <v>44.80000000000005</v>
       </c>
       <c r="K339" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L339" t="n">
         <v>36.62999999999999</v>
@@ -17568,7 +17590,7 @@
         <v>44.90000000000006</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L340" t="n">
         <v>36.61999999999999</v>
@@ -17619,7 +17641,7 @@
         <v>44.90000000000006</v>
       </c>
       <c r="K341" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L341" t="n">
         <v>36.61</v>
@@ -17670,7 +17692,7 @@
         <v>45.00000000000006</v>
       </c>
       <c r="K342" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L342" t="n">
         <v>36.61</v>
@@ -17721,7 +17743,7 @@
         <v>45.00000000000006</v>
       </c>
       <c r="K343" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L343" t="n">
         <v>36.59</v>
@@ -17772,7 +17794,7 @@
         <v>45.00000000000006</v>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L344" t="n">
         <v>36.57</v>
@@ -17823,7 +17845,7 @@
         <v>45.00000000000006</v>
       </c>
       <c r="K345" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>36.55</v>
@@ -17874,7 +17896,7 @@
         <v>45.20000000000006</v>
       </c>
       <c r="K346" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>36.55</v>
@@ -17925,7 +17947,7 @@
         <v>45.30000000000006</v>
       </c>
       <c r="K347" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L347" t="n">
         <v>36.54000000000001</v>
@@ -17976,7 +17998,7 @@
         <v>45.70000000000006</v>
       </c>
       <c r="K348" t="n">
-        <v>-29.41176470588206</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L348" t="n">
         <v>36.52</v>
@@ -18027,7 +18049,7 @@
         <v>46.00000000000006</v>
       </c>
       <c r="K349" t="n">
-        <v>-10.00000000000007</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L349" t="n">
         <v>36.52</v>
@@ -18078,7 +18100,7 @@
         <v>46.20000000000006</v>
       </c>
       <c r="K350" t="n">
-        <v>-18.1818181818183</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L350" t="n">
         <v>36.49</v>
@@ -18129,7 +18151,7 @@
         <v>46.40000000000006</v>
       </c>
       <c r="K351" t="n">
-        <v>-8.333333333333384</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>36.48</v>
@@ -18180,7 +18202,7 @@
         <v>46.60000000000007</v>
       </c>
       <c r="K352" t="n">
-        <v>-8.333333333333384</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L352" t="n">
         <v>36.46</v>
@@ -18231,7 +18253,7 @@
         <v>46.80000000000007</v>
       </c>
       <c r="K353" t="n">
-        <v>-8.333333333333384</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>36.46</v>
@@ -18282,7 +18304,7 @@
         <v>47.00000000000007</v>
       </c>
       <c r="K354" t="n">
-        <v>-15.38461538461547</v>
+        <v>-10.00000000000007</v>
       </c>
       <c r="L354" t="n">
         <v>36.44</v>
@@ -18333,7 +18355,7 @@
         <v>47.10000000000007</v>
       </c>
       <c r="K355" t="n">
-        <v>-11.11111111111117</v>
+        <v>-15.78947368421064</v>
       </c>
       <c r="L355" t="n">
         <v>36.43</v>
@@ -18384,7 +18406,7 @@
         <v>47.20000000000007</v>
       </c>
       <c r="K356" t="n">
-        <v>-7.142857142857179</v>
+        <v>-5.263157894736882</v>
       </c>
       <c r="L356" t="n">
         <v>36.41</v>
@@ -18435,7 +18457,7 @@
         <v>47.30000000000008</v>
       </c>
       <c r="K357" t="n">
-        <v>-10.34482758620695</v>
+        <v>12.49999999999961</v>
       </c>
       <c r="L357" t="n">
         <v>36.39</v>
@@ -18486,7 +18508,7 @@
         <v>47.30000000000008</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L358" t="n">
         <v>36.41</v>
@@ -18537,7 +18559,7 @@
         <v>47.40000000000008</v>
       </c>
       <c r="K359" t="n">
-        <v>-7.692307692307734</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>36.39</v>
@@ -18588,7 +18610,7 @@
         <v>47.50000000000008</v>
       </c>
       <c r="K360" t="n">
-        <v>-7.692307692307734</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L360" t="n">
         <v>36.39999999999999</v>
@@ -18639,7 +18661,7 @@
         <v>47.50000000000008</v>
       </c>
       <c r="K361" t="n">
-        <v>-7.692307692307734</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L361" t="n">
         <v>36.38999999999999</v>
@@ -18690,7 +18712,7 @@
         <v>47.50000000000008</v>
       </c>
       <c r="K362" t="n">
-        <v>-4.000000000000023</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L362" t="n">
         <v>36.39999999999999</v>
@@ -18741,7 +18763,7 @@
         <v>47.50000000000008</v>
       </c>
       <c r="K363" t="n">
-        <v>-4.000000000000023</v>
+        <v>20</v>
       </c>
       <c r="L363" t="n">
         <v>36.38999999999999</v>
@@ -18792,7 +18814,7 @@
         <v>47.80000000000008</v>
       </c>
       <c r="K364" t="n">
-        <v>-14.28571428571414</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L364" t="n">
         <v>36.36999999999999</v>
@@ -18894,7 +18916,7 @@
         <v>48.70000000000007</v>
       </c>
       <c r="K366" t="n">
-        <v>-20</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L366" t="n">
         <v>36.32999999999999</v>
@@ -18945,7 +18967,7 @@
         <v>48.70000000000007</v>
       </c>
       <c r="K367" t="n">
-        <v>-17.64705882352939</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L367" t="n">
         <v>36.28999999999999</v>
@@ -18996,7 +19018,7 @@
         <v>48.80000000000008</v>
       </c>
       <c r="K368" t="n">
-        <v>-9.677419354838799</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L368" t="n">
         <v>36.23999999999999</v>
@@ -19047,7 +19069,7 @@
         <v>49.20000000000007</v>
       </c>
       <c r="K369" t="n">
-        <v>-6.250000000000055</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L369" t="n">
         <v>36.23999999999999</v>
@@ -19098,7 +19120,7 @@
         <v>49.50000000000007</v>
       </c>
       <c r="K370" t="n">
-        <v>-9.090909090908973</v>
+        <v>-20</v>
       </c>
       <c r="L370" t="n">
         <v>36.2</v>
@@ -19149,7 +19171,7 @@
         <v>49.50000000000007</v>
       </c>
       <c r="K371" t="n">
-        <v>-16.12903225806447</v>
+        <v>-20</v>
       </c>
       <c r="L371" t="n">
         <v>36.16</v>
@@ -19200,7 +19222,7 @@
         <v>49.50000000000007</v>
       </c>
       <c r="K372" t="n">
-        <v>-10.34482758620678</v>
+        <v>-20</v>
       </c>
       <c r="L372" t="n">
         <v>36.12</v>
@@ -19251,7 +19273,7 @@
         <v>49.50000000000007</v>
       </c>
       <c r="K373" t="n">
-        <v>-18.5185185185185</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L373" t="n">
         <v>36.08</v>
@@ -19302,7 +19324,7 @@
         <v>49.70000000000007</v>
       </c>
       <c r="K374" t="n">
-        <v>-3.703703703703489</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L374" t="n">
         <v>36.09</v>
@@ -19353,7 +19375,7 @@
         <v>49.70000000000007</v>
       </c>
       <c r="K375" t="n">
-        <v>-7.692307692307525</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L375" t="n">
         <v>36.06</v>
@@ -19404,7 +19426,7 @@
         <v>49.70000000000007</v>
       </c>
       <c r="K376" t="n">
-        <v>-11.99999999999989</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L376" t="n">
         <v>36.08</v>
@@ -19455,7 +19477,7 @@
         <v>49.70000000000007</v>
       </c>
       <c r="K377" t="n">
-        <v>-8.333333333333162</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L377" t="n">
         <v>36.09999999999999</v>
@@ -19506,7 +19528,7 @@
         <v>49.70000000000007</v>
       </c>
       <c r="K378" t="n">
-        <v>-8.333333333333162</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L378" t="n">
         <v>36.13</v>
@@ -19557,7 +19579,7 @@
         <v>49.80000000000007</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L379" t="n">
         <v>36.13</v>
@@ -19608,7 +19630,7 @@
         <v>49.90000000000007</v>
       </c>
       <c r="K380" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L380" t="n">
         <v>36.16999999999999</v>
@@ -19659,7 +19681,7 @@
         <v>50.00000000000007</v>
       </c>
       <c r="K381" t="n">
-        <v>4.000000000000068</v>
+        <v>100</v>
       </c>
       <c r="L381" t="n">
         <v>36.21999999999999</v>
@@ -19710,7 +19732,7 @@
         <v>50.00000000000007</v>
       </c>
       <c r="K382" t="n">
-        <v>4.000000000000068</v>
+        <v>100</v>
       </c>
       <c r="L382" t="n">
         <v>36.27</v>
@@ -19761,7 +19783,7 @@
         <v>50.10000000000007</v>
       </c>
       <c r="K383" t="n">
-        <v>7.692307692307819</v>
+        <v>100</v>
       </c>
       <c r="L383" t="n">
         <v>36.33</v>
@@ -19812,7 +19834,7 @@
         <v>50.30000000000007</v>
       </c>
       <c r="K384" t="n">
-        <v>27.99999999999991</v>
+        <v>100</v>
       </c>
       <c r="L384" t="n">
         <v>36.39</v>
@@ -19863,7 +19885,7 @@
         <v>50.30000000000007</v>
       </c>
       <c r="K385" t="n">
-        <v>14.28571428571419</v>
+        <v>100</v>
       </c>
       <c r="L385" t="n">
         <v>36.45</v>
@@ -19914,7 +19936,7 @@
         <v>50.50000000000006</v>
       </c>
       <c r="K386" t="n">
-        <v>33.3333333333336</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L386" t="n">
         <v>36.49</v>
@@ -19965,7 +19987,7 @@
         <v>50.50000000000006</v>
       </c>
       <c r="K387" t="n">
-        <v>33.3333333333336</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L387" t="n">
         <v>36.53000000000001</v>
@@ -20016,7 +20038,7 @@
         <v>50.60000000000007</v>
       </c>
       <c r="K388" t="n">
-        <v>33.3333333333336</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L388" t="n">
         <v>36.56000000000001</v>
@@ -20118,7 +20140,7 @@
         <v>50.60000000000007</v>
       </c>
       <c r="K390" t="n">
-        <v>45.45454545454569</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>36.59000000000001</v>
@@ -20169,7 +20191,7 @@
         <v>50.60000000000007</v>
       </c>
       <c r="K391" t="n">
-        <v>45.45454545454569</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>36.59000000000001</v>
@@ -20220,7 +20242,7 @@
         <v>50.60000000000007</v>
       </c>
       <c r="K392" t="n">
-        <v>45.45454545454569</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L392" t="n">
         <v>36.59000000000001</v>
@@ -20271,7 +20293,7 @@
         <v>50.70000000000007</v>
       </c>
       <c r="K393" t="n">
-        <v>50.0000000000003</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L393" t="n">
         <v>36.59000000000001</v>
@@ -20322,7 +20344,7 @@
         <v>50.80000000000007</v>
       </c>
       <c r="K394" t="n">
-        <v>27.27272727272715</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L394" t="n">
         <v>36.56000000000001</v>
@@ -20373,7 +20395,7 @@
         <v>50.90000000000007</v>
       </c>
       <c r="K395" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>36.54000000000001</v>
@@ -20424,7 +20446,7 @@
         <v>51.10000000000007</v>
       </c>
       <c r="K396" t="n">
-        <v>42.85714285714271</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L396" t="n">
         <v>36.56000000000001</v>
@@ -20475,7 +20497,7 @@
         <v>51.20000000000006</v>
       </c>
       <c r="K397" t="n">
-        <v>33.33333333333365</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L397" t="n">
         <v>36.57000000000001</v>
@@ -20526,7 +20548,7 @@
         <v>51.30000000000006</v>
       </c>
       <c r="K398" t="n">
-        <v>25.00000000000011</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L398" t="n">
         <v>36.58000000000001</v>
@@ -20577,7 +20599,7 @@
         <v>51.30000000000006</v>
       </c>
       <c r="K399" t="n">
-        <v>20.00000000000038</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L399" t="n">
         <v>36.59000000000001</v>
@@ -20628,7 +20650,7 @@
         <v>51.40000000000006</v>
       </c>
       <c r="K400" t="n">
-        <v>20.00000000000038</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L400" t="n">
         <v>36.61000000000001</v>
@@ -20679,7 +20701,7 @@
         <v>51.40000000000006</v>
       </c>
       <c r="K401" t="n">
-        <v>14.28571428571458</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L401" t="n">
         <v>36.63000000000001</v>
@@ -20730,7 +20752,7 @@
         <v>51.50000000000006</v>
       </c>
       <c r="K402" t="n">
-        <v>6.666666666666793</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>36.64000000000001</v>
@@ -20781,7 +20803,7 @@
         <v>51.50000000000006</v>
       </c>
       <c r="K403" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L403" t="n">
         <v>36.64000000000001</v>
@@ -20832,7 +20854,7 @@
         <v>51.50000000000006</v>
       </c>
       <c r="K404" t="n">
-        <v>-16.66666666666637</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>36.65000000000001</v>
@@ -20883,7 +20905,7 @@
         <v>51.50000000000006</v>
       </c>
       <c r="K405" t="n">
-        <v>-16.66666666666637</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L405" t="n">
         <v>36.65000000000001</v>
@@ -20934,7 +20956,7 @@
         <v>51.50000000000006</v>
       </c>
       <c r="K406" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L406" t="n">
         <v>36.63000000000001</v>
@@ -20985,7 +21007,7 @@
         <v>51.70000000000006</v>
       </c>
       <c r="K407" t="n">
-        <v>16.66666666666637</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L407" t="n">
         <v>36.64000000000001</v>
@@ -21036,7 +21058,7 @@
         <v>51.90000000000006</v>
       </c>
       <c r="K408" t="n">
-        <v>38.46153846153855</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L408" t="n">
         <v>36.68000000000001</v>
@@ -21087,7 +21109,7 @@
         <v>52.00000000000006</v>
       </c>
       <c r="K409" t="n">
-        <v>28.5714285714285</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L409" t="n">
         <v>36.71000000000001</v>
@@ -21138,7 +21160,7 @@
         <v>52.30000000000006</v>
       </c>
       <c r="K410" t="n">
-        <v>5.882352941176569</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L410" t="n">
         <v>36.70000000000001</v>
@@ -21189,7 +21211,7 @@
         <v>52.50000000000006</v>
       </c>
       <c r="K411" t="n">
-        <v>15.78947368421045</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L411" t="n">
         <v>36.71000000000002</v>
@@ -21240,7 +21262,7 @@
         <v>52.60000000000006</v>
       </c>
       <c r="K412" t="n">
-        <v>20</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L412" t="n">
         <v>36.74000000000001</v>
@@ -21291,7 +21313,7 @@
         <v>52.60000000000006</v>
       </c>
       <c r="K413" t="n">
-        <v>15.78947368421045</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L413" t="n">
         <v>36.77</v>
@@ -21342,7 +21364,7 @@
         <v>52.60000000000006</v>
       </c>
       <c r="K414" t="n">
-        <v>22.22222222222226</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L414" t="n">
         <v>36.8</v>
@@ -21393,7 +21415,7 @@
         <v>52.60000000000006</v>
       </c>
       <c r="K415" t="n">
-        <v>17.64705882352936</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L415" t="n">
         <v>36.83</v>
@@ -21444,7 +21466,7 @@
         <v>52.70000000000006</v>
       </c>
       <c r="K416" t="n">
-        <v>12.50000000000022</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L416" t="n">
         <v>36.86999999999999</v>
@@ -21495,7 +21517,7 @@
         <v>52.90000000000006</v>
       </c>
       <c r="K417" t="n">
-        <v>29.41176470588231</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L417" t="n">
         <v>36.90999999999999</v>
@@ -21546,7 +21568,7 @@
         <v>53.00000000000006</v>
       </c>
       <c r="K418" t="n">
-        <v>29.41176470588231</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L418" t="n">
         <v>36.91999999999999</v>
@@ -21597,7 +21619,7 @@
         <v>53.10000000000007</v>
       </c>
       <c r="K419" t="n">
-        <v>22.22222222222209</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L419" t="n">
         <v>36.92999999999999</v>
@@ -21648,7 +21670,7 @@
         <v>53.30000000000007</v>
       </c>
       <c r="K420" t="n">
-        <v>26.31578947368413</v>
+        <v>50</v>
       </c>
       <c r="L420" t="n">
         <v>36.98999999999999</v>
@@ -21699,7 +21721,7 @@
         <v>53.60000000000007</v>
       </c>
       <c r="K421" t="n">
-        <v>36.36363636363619</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L421" t="n">
         <v>37.05999999999999</v>
@@ -21750,7 +21772,7 @@
         <v>53.80000000000007</v>
       </c>
       <c r="K422" t="n">
-        <v>30.43478260869541</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L422" t="n">
         <v>37.09999999999999</v>
@@ -21801,7 +21823,7 @@
         <v>54.10000000000007</v>
       </c>
       <c r="K423" t="n">
-        <v>38.46153846153834</v>
+        <v>46.66666666666642</v>
       </c>
       <c r="L423" t="n">
         <v>37.17</v>
@@ -21852,7 +21874,7 @@
         <v>54.20000000000007</v>
       </c>
       <c r="K424" t="n">
-        <v>33.33333333333316</v>
+        <v>37.49999999999972</v>
       </c>
       <c r="L424" t="n">
         <v>37.23</v>
@@ -21903,7 +21925,7 @@
         <v>54.20000000000007</v>
       </c>
       <c r="K425" t="n">
-        <v>33.33333333333316</v>
+        <v>33.33333333333302</v>
       </c>
       <c r="L425" t="n">
         <v>37.29000000000001</v>
@@ -21954,7 +21976,7 @@
         <v>54.20000000000007</v>
       </c>
       <c r="K426" t="n">
-        <v>33.33333333333316</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L426" t="n">
         <v>37.34</v>
@@ -22005,7 +22027,7 @@
         <v>54.20000000000007</v>
       </c>
       <c r="K427" t="n">
-        <v>27.99999999999995</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L427" t="n">
         <v>37.37</v>
@@ -22056,7 +22078,7 @@
         <v>54.40000000000008</v>
       </c>
       <c r="K428" t="n">
-        <v>11.99999999999982</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L428" t="n">
         <v>37.39</v>
@@ -22107,7 +22129,7 @@
         <v>54.70000000000007</v>
       </c>
       <c r="K429" t="n">
-        <v>3.703703703703742</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L429" t="n">
         <v>37.39</v>
@@ -22158,7 +22180,7 @@
         <v>54.80000000000008</v>
       </c>
       <c r="K430" t="n">
-        <v>11.99999999999982</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L430" t="n">
         <v>37.36</v>
@@ -22209,7 +22231,7 @@
         <v>54.90000000000008</v>
       </c>
       <c r="K431" t="n">
-        <v>8.333333333333384</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L431" t="n">
         <v>37.31</v>
@@ -22260,7 +22282,7 @@
         <v>54.90000000000008</v>
       </c>
       <c r="K432" t="n">
-        <v>4.347826086956549</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L432" t="n">
         <v>37.28</v>
@@ -22311,7 +22333,7 @@
         <v>54.90000000000008</v>
       </c>
       <c r="K433" t="n">
-        <v>4.347826086956549</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L433" t="n">
         <v>37.22</v>
@@ -22362,7 +22384,7 @@
         <v>54.90000000000008</v>
       </c>
       <c r="K434" t="n">
-        <v>4.347826086956549</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L434" t="n">
         <v>37.17</v>
@@ -22413,7 +22435,7 @@
         <v>54.90000000000008</v>
       </c>
       <c r="K435" t="n">
-        <v>4.347826086956549</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L435" t="n">
         <v>37.12</v>
@@ -22464,7 +22486,7 @@
         <v>55.00000000000008</v>
       </c>
       <c r="K436" t="n">
-        <v>-4.347826086956549</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L436" t="n">
         <v>37.06</v>
@@ -22515,7 +22537,7 @@
         <v>55.30000000000008</v>
       </c>
       <c r="K437" t="n">
-        <v>0</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L437" t="n">
         <v>37.02999999999999</v>
@@ -22566,7 +22588,7 @@
         <v>55.40000000000008</v>
       </c>
       <c r="K438" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L438" t="n">
         <v>37.01</v>
@@ -22617,7 +22639,7 @@
         <v>55.60000000000009</v>
       </c>
       <c r="K439" t="n">
-        <v>-4.000000000000023</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>36.99999999999999</v>
@@ -22668,7 +22690,7 @@
         <v>55.60000000000009</v>
       </c>
       <c r="K440" t="n">
-        <v>-13.04347826086964</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L440" t="n">
         <v>36.99999999999999</v>
@@ -22719,7 +22741,7 @@
         <v>55.60000000000009</v>
       </c>
       <c r="K441" t="n">
-        <v>-29.99999999999975</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L441" t="n">
         <v>36.98999999999999</v>
@@ -22770,7 +22792,7 @@
         <v>55.60000000000009</v>
       </c>
       <c r="K442" t="n">
-        <v>-22.22222222222192</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L442" t="n">
         <v>36.97999999999999</v>
@@ -22821,7 +22843,7 @@
         <v>55.70000000000009</v>
       </c>
       <c r="K443" t="n">
-        <v>-49.99999999999978</v>
+        <v>-25</v>
       </c>
       <c r="L443" t="n">
         <v>36.95999999999999</v>
@@ -22872,7 +22894,7 @@
         <v>55.80000000000009</v>
       </c>
       <c r="K444" t="n">
-        <v>-37.49999999999972</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L444" t="n">
         <v>36.94999999999999</v>
@@ -22923,7 +22945,7 @@
         <v>55.80000000000009</v>
       </c>
       <c r="K445" t="n">
-        <v>-37.49999999999972</v>
+        <v>0</v>
       </c>
       <c r="L445" t="n">
         <v>36.93999999999998</v>
@@ -22974,7 +22996,7 @@
         <v>55.80000000000009</v>
       </c>
       <c r="K446" t="n">
-        <v>-37.49999999999972</v>
+        <v>-60</v>
       </c>
       <c r="L446" t="n">
         <v>36.93999999999998</v>
@@ -23025,7 +23047,7 @@
         <v>55.90000000000009</v>
       </c>
       <c r="K447" t="n">
-        <v>-29.41176470588206</v>
+        <v>-20</v>
       </c>
       <c r="L447" t="n">
         <v>36.91999999999999</v>
@@ -23076,7 +23098,7 @@
         <v>56.10000000000009</v>
       </c>
       <c r="K448" t="n">
-        <v>-29.41176470588206</v>
+        <v>-20</v>
       </c>
       <c r="L448" t="n">
         <v>36.88999999999999</v>
@@ -23127,7 +23149,7 @@
         <v>56.4000000000001</v>
       </c>
       <c r="K449" t="n">
-        <v>5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L449" t="n">
         <v>36.90999999999999</v>
@@ -23229,7 +23251,7 @@
         <v>56.8000000000001</v>
       </c>
       <c r="K451" t="n">
-        <v>5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L451" t="n">
         <v>36.92999999999999</v>
@@ -23280,7 +23302,7 @@
         <v>56.8000000000001</v>
       </c>
       <c r="K452" t="n">
-        <v>5.263157894736842</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L452" t="n">
         <v>36.95</v>
@@ -23331,7 +23353,7 @@
         <v>56.8000000000001</v>
       </c>
       <c r="K453" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L453" t="n">
         <v>36.98</v>
@@ -23382,7 +23404,7 @@
         <v>57.10000000000011</v>
       </c>
       <c r="K454" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L454" t="n">
         <v>36.97000000000001</v>
@@ -23433,7 +23455,7 @@
         <v>57.30000000000011</v>
       </c>
       <c r="K455" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L455" t="n">
         <v>36.98</v>
@@ -23484,7 +23506,7 @@
         <v>57.40000000000011</v>
       </c>
       <c r="K456" t="n">
-        <v>8.333333333333332</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L456" t="n">
         <v>37.00000000000001</v>
@@ -23535,7 +23557,7 @@
         <v>57.50000000000011</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L457" t="n">
         <v>37.02000000000001</v>
@@ -23586,7 +23608,7 @@
         <v>57.50000000000011</v>
       </c>
       <c r="K458" t="n">
-        <v>4.761904761904762</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L458" t="n">
         <v>37.06000000000001</v>
@@ -23637,7 +23659,7 @@
         <v>57.70000000000011</v>
       </c>
       <c r="K459" t="n">
-        <v>23.80952380952355</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L459" t="n">
         <v>37.09</v>
@@ -23688,7 +23710,7 @@
         <v>57.70000000000011</v>
       </c>
       <c r="K460" t="n">
-        <v>23.80952380952355</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L460" t="n">
         <v>37.14</v>
@@ -23739,7 +23761,7 @@
         <v>57.80000000000011</v>
       </c>
       <c r="K461" t="n">
-        <v>27.27272727272704</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L461" t="n">
         <v>37.18</v>
@@ -23790,7 +23812,7 @@
         <v>58.00000000000011</v>
       </c>
       <c r="K462" t="n">
-        <v>16.66666666666642</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L462" t="n">
         <v>37.2</v>
@@ -23841,7 +23863,7 @@
         <v>58.10000000000012</v>
       </c>
       <c r="K463" t="n">
-        <v>24.99999999999978</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L463" t="n">
         <v>37.23</v>
@@ -23892,7 +23914,7 @@
         <v>58.20000000000012</v>
       </c>
       <c r="K464" t="n">
-        <v>16.66666666666642</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L464" t="n">
         <v>37.27999999999999</v>
@@ -23943,7 +23965,7 @@
         <v>58.20000000000012</v>
       </c>
       <c r="K465" t="n">
-        <v>16.66666666666642</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L465" t="n">
         <v>37.31</v>
@@ -23994,7 +24016,7 @@
         <v>58.30000000000012</v>
       </c>
       <c r="K466" t="n">
-        <v>19.99999999999977</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L466" t="n">
         <v>37.33999999999999</v>
@@ -24045,7 +24067,7 @@
         <v>58.40000000000012</v>
       </c>
       <c r="K467" t="n">
-        <v>19.99999999999977</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L467" t="n">
         <v>37.36999999999999</v>
@@ -24096,7 +24118,7 @@
         <v>58.60000000000012</v>
       </c>
       <c r="K468" t="n">
-        <v>19.99999999999977</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L468" t="n">
         <v>37.38</v>
@@ -24147,7 +24169,7 @@
         <v>58.90000000000013</v>
       </c>
       <c r="K469" t="n">
-        <v>19.99999999999977</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L469" t="n">
         <v>37.4</v>
@@ -24198,7 +24220,7 @@
         <v>58.90000000000013</v>
       </c>
       <c r="K470" t="n">
-        <v>30.43478260869544</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L470" t="n">
         <v>37.42</v>
@@ -24249,7 +24271,7 @@
         <v>59.00000000000013</v>
       </c>
       <c r="K471" t="n">
-        <v>18.18181818181792</v>
+        <v>20</v>
       </c>
       <c r="L471" t="n">
         <v>37.42</v>
@@ -24300,7 +24322,7 @@
         <v>59.00000000000013</v>
       </c>
       <c r="K472" t="n">
-        <v>18.18181818181792</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L472" t="n">
         <v>37.44</v>
@@ -24351,7 +24373,7 @@
         <v>59.10000000000013</v>
       </c>
       <c r="K473" t="n">
-        <v>21.73913043478237</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L473" t="n">
         <v>37.46000000000001</v>
@@ -24402,7 +24424,7 @@
         <v>59.20000000000013</v>
       </c>
       <c r="K474" t="n">
-        <v>33.33333333333311</v>
+        <v>20</v>
       </c>
       <c r="L474" t="n">
         <v>37.48</v>
@@ -24453,7 +24475,7 @@
         <v>59.20000000000013</v>
       </c>
       <c r="K475" t="n">
-        <v>26.31578947368394</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L475" t="n">
         <v>37.50000000000001</v>
@@ -24504,7 +24526,7 @@
         <v>59.30000000000013</v>
       </c>
       <c r="K476" t="n">
-        <v>15.78947368421021</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L476" t="n">
         <v>37.50000000000001</v>
@@ -24555,7 +24577,7 @@
         <v>59.30000000000013</v>
       </c>
       <c r="K477" t="n">
-        <v>11.11111111111076</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L477" t="n">
         <v>37.49</v>
@@ -24606,7 +24628,7 @@
         <v>59.50000000000014</v>
       </c>
       <c r="K478" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>37.52</v>
@@ -24657,7 +24679,7 @@
         <v>59.60000000000014</v>
       </c>
       <c r="K479" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L479" t="n">
         <v>37.51000000000001</v>
@@ -24708,7 +24730,7 @@
         <v>59.80000000000014</v>
       </c>
       <c r="K480" t="n">
-        <v>-4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L480" t="n">
         <v>37.48</v>
@@ -24759,7 +24781,7 @@
         <v>59.90000000000014</v>
       </c>
       <c r="K481" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L481" t="n">
         <v>37.47</v>
@@ -24810,7 +24832,7 @@
         <v>60.30000000000014</v>
       </c>
       <c r="K482" t="n">
-        <v>-13.0434782608693</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L482" t="n">
         <v>37.42</v>
@@ -24861,7 +24883,7 @@
         <v>60.30000000000014</v>
       </c>
       <c r="K483" t="n">
-        <v>-18.18181818181792</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L483" t="n">
         <v>37.36</v>
@@ -24912,7 +24934,7 @@
         <v>60.40000000000014</v>
       </c>
       <c r="K484" t="n">
-        <v>-18.18181818181792</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L484" t="n">
         <v>37.3</v>
@@ -24963,7 +24985,7 @@
         <v>60.40000000000014</v>
       </c>
       <c r="K485" t="n">
-        <v>-18.18181818181792</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L485" t="n">
         <v>37.23999999999999</v>
@@ -25014,7 +25036,7 @@
         <v>60.60000000000014</v>
       </c>
       <c r="K486" t="n">
-        <v>-30.43478260869522</v>
+        <v>-53.84615384615334</v>
       </c>
       <c r="L486" t="n">
         <v>37.16999999999999</v>
@@ -25065,7 +25087,7 @@
         <v>60.70000000000014</v>
       </c>
       <c r="K487" t="n">
-        <v>-39.13043478260832</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L487" t="n">
         <v>37.09</v>
@@ -25116,7 +25138,7 @@
         <v>61.00000000000014</v>
       </c>
       <c r="K488" t="n">
-        <v>-16.66666666666652</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L488" t="n">
         <v>37.02</v>
@@ -25218,7 +25240,7 @@
         <v>61.20000000000013</v>
       </c>
       <c r="K490" t="n">
-        <v>-39.13043478260856</v>
+        <v>-53.84615384615393</v>
       </c>
       <c r="L490" t="n">
         <v>36.89999999999999</v>
@@ -25269,7 +25291,7 @@
         <v>61.80000000000013</v>
       </c>
       <c r="K491" t="n">
-        <v>-7.142857142857252</v>
+        <v>20</v>
       </c>
       <c r="L491" t="n">
         <v>36.88999999999999</v>
@@ -25320,7 +25342,7 @@
         <v>62.40000000000012</v>
       </c>
       <c r="K492" t="n">
-        <v>-23.52941176470586</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L492" t="n">
         <v>36.85999999999999</v>
@@ -25371,7 +25393,7 @@
         <v>62.50000000000012</v>
       </c>
       <c r="K493" t="n">
-        <v>-29.41176470588243</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L493" t="n">
         <v>36.81999999999999</v>
@@ -25422,7 +25444,7 @@
         <v>62.60000000000012</v>
       </c>
       <c r="K494" t="n">
-        <v>-23.52941176470586</v>
+        <v>-9.090909090908973</v>
       </c>
       <c r="L494" t="n">
         <v>36.8</v>
@@ -25473,7 +25495,7 @@
         <v>63.20000000000012</v>
       </c>
       <c r="K495" t="n">
-        <v>-5.000000000000089</v>
+        <v>23.07692307692303</v>
       </c>
       <c r="L495" t="n">
         <v>36.84</v>
@@ -25524,7 +25546,7 @@
         <v>63.20000000000012</v>
       </c>
       <c r="K496" t="n">
-        <v>-2.564102564102611</v>
+        <v>28.00000000000007</v>
       </c>
       <c r="L496" t="n">
         <v>36.9</v>
@@ -25575,7 +25597,7 @@
         <v>63.40000000000012</v>
       </c>
       <c r="K497" t="n">
-        <v>2.439024390243945</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L497" t="n">
         <v>36.98999999999999</v>
@@ -25626,7 +25648,7 @@
         <v>63.50000000000012</v>
       </c>
       <c r="K498" t="n">
-        <v>-5.000000000000089</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L498" t="n">
         <v>37.04</v>
@@ -25677,7 +25699,7 @@
         <v>63.70000000000012</v>
       </c>
       <c r="K499" t="n">
-        <v>-7.317073170731674</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L499" t="n">
         <v>37.07</v>
@@ -25728,7 +25750,7 @@
         <v>63.70000000000012</v>
       </c>
       <c r="K500" t="n">
-        <v>-2.564102564102433</v>
+        <v>-5.263157894736566</v>
       </c>
       <c r="L500" t="n">
         <v>37.12</v>
@@ -25779,7 +25801,7 @@
         <v>63.70000000000012</v>
       </c>
       <c r="K501" t="n">
-        <v>-5.263157894736763</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L501" t="n">
         <v>37.11</v>
@@ -25830,7 +25852,7 @@
         <v>64.00000000000011</v>
       </c>
       <c r="K502" t="n">
-        <v>-2.70270270270276</v>
+        <v>19.9999999999999</v>
       </c>
       <c r="L502" t="n">
         <v>37.13</v>
@@ -25881,7 +25903,7 @@
         <v>64.00000000000011</v>
       </c>
       <c r="K503" t="n">
-        <v>-2.70270270270276</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L503" t="n">
         <v>37.15999999999999</v>
@@ -25932,7 +25954,7 @@
         <v>64.10000000000011</v>
       </c>
       <c r="K504" t="n">
-        <v>-2.702702702702765</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L504" t="n">
         <v>37.16999999999999</v>
@@ -25983,7 +26005,7 @@
         <v>64.3000000000001</v>
       </c>
       <c r="K505" t="n">
-        <v>-7.692307692307707</v>
+        <v>-63.6363636363644</v>
       </c>
       <c r="L505" t="n">
         <v>37.09999999999999</v>
@@ -26034,7 +26056,7 @@
         <v>64.60000000000009</v>
       </c>
       <c r="K506" t="n">
-        <v>4.999999999999947</v>
+        <v>-50.00000000000119</v>
       </c>
       <c r="L506" t="n">
         <v>37.05999999999999</v>
@@ -26085,7 +26107,7 @@
         <v>65.00000000000009</v>
       </c>
       <c r="K507" t="n">
-        <v>-2.325581395348899</v>
+        <v>-60.00000000000133</v>
       </c>
       <c r="L507" t="n">
         <v>36.95999999999999</v>
@@ -26136,7 +26158,7 @@
         <v>65.00000000000009</v>
       </c>
       <c r="K508" t="n">
-        <v>-10.00000000000009</v>
+        <v>-53.84615384615537</v>
       </c>
       <c r="L508" t="n">
         <v>36.86999999999999</v>
@@ -26187,7 +26209,7 @@
         <v>65.40000000000009</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>-17.64705882352993</v>
       </c>
       <c r="L509" t="n">
         <v>36.83999999999999</v>
@@ -26238,7 +26260,7 @@
         <v>65.70000000000009</v>
       </c>
       <c r="K510" t="n">
-        <v>-2.222222222222275</v>
+        <v>-30.0000000000005</v>
       </c>
       <c r="L510" t="n">
         <v>36.77999999999999</v>
@@ -26289,7 +26311,7 @@
         <v>66.00000000000009</v>
       </c>
       <c r="K511" t="n">
-        <v>-9.523809523809581</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>36.74999999999999</v>
@@ -26340,7 +26362,7 @@
         <v>66.30000000000008</v>
       </c>
       <c r="K512" t="n">
-        <v>-2.564102564102625</v>
+        <v>-13.04347826086962</v>
       </c>
       <c r="L512" t="n">
         <v>36.72</v>
@@ -26391,7 +26413,7 @@
         <v>66.60000000000008</v>
       </c>
       <c r="K513" t="n">
-        <v>7.317073170731711</v>
+        <v>4.000000000000102</v>
       </c>
       <c r="L513" t="n">
         <v>36.72</v>
@@ -26442,7 +26464,7 @@
         <v>66.90000000000008</v>
       </c>
       <c r="K514" t="n">
-        <v>-2.325581395348895</v>
+        <v>0</v>
       </c>
       <c r="L514" t="n">
         <v>36.7</v>
@@ -26493,7 +26515,7 @@
         <v>68.30000000000007</v>
       </c>
       <c r="K515" t="n">
-        <v>13.72549019607862</v>
+        <v>29.72972972972997</v>
       </c>
       <c r="L515" t="n">
         <v>36.84</v>
@@ -26544,7 +26566,7 @@
         <v>69.40000000000006</v>
       </c>
       <c r="K516" t="n">
-        <v>-6.45161290322584</v>
+        <v>9.090909090909104</v>
       </c>
       <c r="L516" t="n">
         <v>36.84</v>
@@ -26595,7 +26617,7 @@
         <v>69.80000000000007</v>
       </c>
       <c r="K517" t="n">
-        <v>-3.125000000000069</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L517" t="n">
         <v>36.92</v>
@@ -26646,7 +26668,7 @@
         <v>69.80000000000007</v>
       </c>
       <c r="K518" t="n">
-        <v>-1.587301587301623</v>
+        <v>9.090909090909104</v>
       </c>
       <c r="L518" t="n">
         <v>37</v>
@@ -26697,7 +26719,7 @@
         <v>70.20000000000007</v>
       </c>
       <c r="K519" t="n">
-        <v>-4.615384615384712</v>
+        <v>6.666666666666625</v>
       </c>
       <c r="L519" t="n">
         <v>37</v>
@@ -26748,7 +26770,7 @@
         <v>70.50000000000009</v>
       </c>
       <c r="K520" t="n">
-        <v>0</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L520" t="n">
         <v>37.06</v>
@@ -26799,7 +26821,7 @@
         <v>70.70000000000009</v>
       </c>
       <c r="K521" t="n">
-        <v>-2.85714285714291</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L521" t="n">
         <v>37.07</v>
@@ -26901,7 +26923,7 @@
         <v>71.00000000000009</v>
       </c>
       <c r="K523" t="n">
-        <v>-2.857142857142808</v>
+        <v>2.439024390243932</v>
       </c>
       <c r="L523" t="n">
         <v>37.08</v>
@@ -26952,7 +26974,7 @@
         <v>71.50000000000009</v>
       </c>
       <c r="K524" t="n">
-        <v>5.405405405405499</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L524" t="n">
         <v>37.13999999999999</v>
@@ -27003,7 +27025,7 @@
         <v>71.90000000000009</v>
       </c>
       <c r="K525" t="n">
-        <v>2.631578947368367</v>
+        <v>-4.000000000000012</v>
       </c>
       <c r="L525" t="n">
         <v>37.02</v>
@@ -27054,7 +27076,7 @@
         <v>71.90000000000009</v>
       </c>
       <c r="K526" t="n">
-        <v>-1.36986301369865</v>
+        <v>-23.80952380952355</v>
       </c>
       <c r="L526" t="n">
         <v>37.01</v>
@@ -27105,7 +27127,7 @@
         <v>72.00000000000009</v>
       </c>
       <c r="K527" t="n">
-        <v>2.857142857142898</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L527" t="n">
         <v>36.95</v>
@@ -27156,7 +27178,7 @@
         <v>72.10000000000008</v>
       </c>
       <c r="K528" t="n">
-        <v>4.22535211267602</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L528" t="n">
         <v>36.89999999999999</v>
@@ -27207,7 +27229,7 @@
         <v>72.10000000000008</v>
       </c>
       <c r="K529" t="n">
-        <v>-1.49253731343286</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L529" t="n">
         <v>36.89</v>
@@ -27258,7 +27280,7 @@
         <v>72.40000000000009</v>
       </c>
       <c r="K530" t="n">
-        <v>7.462686567164176</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L530" t="n">
         <v>36.88</v>
@@ -27360,7 +27382,7 @@
         <v>72.60000000000009</v>
       </c>
       <c r="K532" t="n">
-        <v>4.761904761904709</v>
+        <v>12.49999999999967</v>
       </c>
       <c r="L532" t="n">
         <v>36.87</v>
@@ -27411,7 +27433,7 @@
         <v>72.90000000000009</v>
       </c>
       <c r="K533" t="n">
-        <v>4.761904761904821</v>
+        <v>0</v>
       </c>
       <c r="L533" t="n">
         <v>36.92</v>
@@ -27462,7 +27484,7 @@
         <v>73.10000000000009</v>
       </c>
       <c r="K534" t="n">
-        <v>6.451612903225766</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L534" t="n">
         <v>36.9</v>
@@ -27513,7 +27535,7 @@
         <v>73.40000000000009</v>
       </c>
       <c r="K535" t="n">
-        <v>-13.72549019607843</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L535" t="n">
         <v>36.95</v>
@@ -27564,7 +27586,7 @@
         <v>73.8000000000001</v>
       </c>
       <c r="K536" t="n">
-        <v>0</v>
+        <v>11.1111111111108</v>
       </c>
       <c r="L536" t="n">
         <v>36.95999999999999</v>
@@ -27615,7 +27637,7 @@
         <v>73.8000000000001</v>
       </c>
       <c r="K537" t="n">
-        <v>-9.999999999999893</v>
+        <v>5.882352941176496</v>
       </c>
       <c r="L537" t="n">
         <v>36.98</v>
@@ -27666,7 +27688,7 @@
         <v>73.90000000000009</v>
       </c>
       <c r="K538" t="n">
-        <v>-12.19512195121944</v>
+        <v>0</v>
       </c>
       <c r="L538" t="n">
         <v>36.98</v>
@@ -27717,7 +27739,7 @@
         <v>73.90000000000009</v>
       </c>
       <c r="K539" t="n">
-        <v>-2.702702702702728</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L539" t="n">
         <v>36.98</v>
@@ -27768,7 +27790,7 @@
         <v>74.00000000000009</v>
       </c>
       <c r="K540" t="n">
-        <v>-8.571428571428694</v>
+        <v>0</v>
       </c>
       <c r="L540" t="n">
         <v>36.95999999999999</v>
@@ -27819,7 +27841,7 @@
         <v>74.00000000000009</v>
       </c>
       <c r="K541" t="n">
-        <v>-3.030303030303076</v>
+        <v>0</v>
       </c>
       <c r="L541" t="n">
         <v>36.95999999999999</v>
@@ -27870,7 +27892,7 @@
         <v>74.00000000000009</v>
       </c>
       <c r="K542" t="n">
-        <v>0</v>
+        <v>-27.2727272727278</v>
       </c>
       <c r="L542" t="n">
         <v>36.95999999999999</v>
@@ -27921,7 +27943,7 @@
         <v>74.00000000000009</v>
       </c>
       <c r="K543" t="n">
-        <v>6.666666666666525</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L543" t="n">
         <v>36.92999999999999</v>
@@ -27972,7 +27994,7 @@
         <v>74.00000000000009</v>
       </c>
       <c r="K544" t="n">
-        <v>-12.00000000000017</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L544" t="n">
         <v>36.91999999999999</v>
@@ -28023,7 +28045,7 @@
         <v>74.20000000000009</v>
       </c>
       <c r="K545" t="n">
-        <v>13.04347826086977</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L545" t="n">
         <v>36.89999999999999</v>
@@ -28074,7 +28096,7 @@
         <v>74.3000000000001</v>
       </c>
       <c r="K546" t="n">
-        <v>8.333333333333432</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L546" t="n">
         <v>36.90999999999999</v>
@@ -28125,7 +28147,7 @@
         <v>74.3000000000001</v>
       </c>
       <c r="K547" t="n">
-        <v>13.04347826086938</v>
+        <v>50</v>
       </c>
       <c r="L547" t="n">
         <v>36.91999999999999</v>
@@ -28176,7 +28198,7 @@
         <v>74.40000000000009</v>
       </c>
       <c r="K548" t="n">
-        <v>4.347826086956561</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L548" t="n">
         <v>36.92999999999999</v>
@@ -28227,7 +28249,7 @@
         <v>74.40000000000009</v>
       </c>
       <c r="K549" t="n">
-        <v>4.347826086956561</v>
+        <v>0</v>
       </c>
       <c r="L549" t="n">
         <v>36.93999999999998</v>
@@ -28278,7 +28300,7 @@
         <v>74.40000000000009</v>
       </c>
       <c r="K550" t="n">
-        <v>-10.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>36.93999999999998</v>
@@ -28380,7 +28402,7 @@
         <v>74.50000000000009</v>
       </c>
       <c r="K552" t="n">
-        <v>5.26315789473694</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L552" t="n">
         <v>36.94999999999999</v>
@@ -28431,7 +28453,7 @@
         <v>74.50000000000009</v>
       </c>
       <c r="K553" t="n">
-        <v>-12.50000000000022</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L553" t="n">
         <v>36.95999999999999</v>
@@ -28482,7 +28504,7 @@
         <v>74.70000000000009</v>
       </c>
       <c r="K554" t="n">
-        <v>12.50000000000022</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L554" t="n">
         <v>36.98999999999999</v>
@@ -28533,7 +28555,7 @@
         <v>74.70000000000009</v>
       </c>
       <c r="K555" t="n">
-        <v>-7.692307692307272</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L555" t="n">
         <v>36.99999999999999</v>
@@ -28584,7 +28606,7 @@
         <v>74.70000000000009</v>
       </c>
       <c r="K556" t="n">
-        <v>33.33333333333412</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L556" t="n">
         <v>37.01999999999999</v>
@@ -28635,7 +28657,7 @@
         <v>74.80000000000008</v>
       </c>
       <c r="K557" t="n">
-        <v>40.00000000000043</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L557" t="n">
         <v>37.04999999999999</v>
@@ -28686,7 +28708,7 @@
         <v>74.80000000000008</v>
       </c>
       <c r="K558" t="n">
-        <v>55.55555555555608</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L558" t="n">
         <v>37.08999999999999</v>
@@ -28737,7 +28759,7 @@
         <v>74.90000000000009</v>
       </c>
       <c r="K559" t="n">
-        <v>60.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L559" t="n">
         <v>37.13999999999999</v>
@@ -28788,7 +28810,7 @@
         <v>74.90000000000009</v>
       </c>
       <c r="K560" t="n">
-        <v>55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L560" t="n">
         <v>37.18999999999999</v>
@@ -28839,7 +28861,7 @@
         <v>74.90000000000009</v>
       </c>
       <c r="K561" t="n">
-        <v>55.5555555555552</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L561" t="n">
         <v>37.23999999999999</v>
@@ -28890,7 +28912,7 @@
         <v>75.00000000000009</v>
       </c>
       <c r="K562" t="n">
-        <v>60.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L562" t="n">
         <v>37.28999999999999</v>
@@ -28941,7 +28963,7 @@
         <v>75.00000000000009</v>
       </c>
       <c r="K563" t="n">
-        <v>60.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L563" t="n">
         <v>37.33999999999999</v>
@@ -28992,7 +29014,7 @@
         <v>75.10000000000008</v>
       </c>
       <c r="K564" t="n">
-        <v>45.45454545454569</v>
+        <v>50</v>
       </c>
       <c r="L564" t="n">
         <v>37.35999999999999</v>
@@ -29043,7 +29065,7 @@
         <v>75.20000000000007</v>
       </c>
       <c r="K565" t="n">
-        <v>19.99999999999986</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L565" t="n">
         <v>37.36999999999999</v>
@@ -29094,7 +29116,7 @@
         <v>75.30000000000007</v>
       </c>
       <c r="K566" t="n">
-        <v>40.00000000000099</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L566" t="n">
         <v>37.38999999999999</v>
@@ -29145,7 +29167,7 @@
         <v>75.30000000000007</v>
       </c>
       <c r="K567" t="n">
-        <v>40.00000000000099</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L567" t="n">
         <v>37.39999999999999</v>
@@ -29196,7 +29218,7 @@
         <v>75.70000000000007</v>
       </c>
       <c r="K568" t="n">
-        <v>69.23076923077002</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L568" t="n">
         <v>37.44999999999999</v>
@@ -29247,7 +29269,7 @@
         <v>75.90000000000008</v>
       </c>
       <c r="K569" t="n">
-        <v>73.33333333333412</v>
+        <v>60.00000000000099</v>
       </c>
       <c r="L569" t="n">
         <v>37.50999999999999</v>
@@ -29298,7 +29320,7 @@
         <v>75.90000000000008</v>
       </c>
       <c r="K570" t="n">
-        <v>73.33333333333412</v>
+        <v>60.00000000000099</v>
       </c>
       <c r="L570" t="n">
         <v>37.56999999999999</v>
@@ -29349,7 +29371,7 @@
         <v>76.60000000000008</v>
       </c>
       <c r="K571" t="n">
-        <v>81.81818181818244</v>
+        <v>75.00000000000044</v>
       </c>
       <c r="L571" t="n">
         <v>37.7</v>
@@ -29400,7 +29422,7 @@
         <v>77.20000000000007</v>
       </c>
       <c r="K572" t="n">
-        <v>40.74074074074097</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L572" t="n">
         <v>37.76</v>
@@ -29451,7 +29473,7 @@
         <v>77.30000000000007</v>
       </c>
       <c r="K573" t="n">
-        <v>35.71428571428593</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L573" t="n">
         <v>37.81</v>
@@ -29502,7 +29524,7 @@
         <v>77.50000000000007</v>
       </c>
       <c r="K574" t="n">
-        <v>21.42857142857136</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L574" t="n">
         <v>37.85</v>
@@ -29553,7 +29575,7 @@
         <v>77.60000000000008</v>
       </c>
       <c r="K575" t="n">
-        <v>24.13793103448268</v>
+        <v>21.7391304347825</v>
       </c>
       <c r="L575" t="n">
         <v>37.91</v>
@@ -29604,7 +29626,7 @@
         <v>77.70000000000007</v>
       </c>
       <c r="K576" t="n">
-        <v>19.9999999999999</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L576" t="n">
         <v>37.95</v>
@@ -29655,7 +29677,7 @@
         <v>78.40000000000008</v>
       </c>
       <c r="K577" t="n">
-        <v>33.33333333333346</v>
+        <v>25.925925925926</v>
       </c>
       <c r="L577" t="n">
         <v>38.06</v>
@@ -29706,7 +29728,7 @@
         <v>78.80000000000007</v>
       </c>
       <c r="K578" t="n">
-        <v>20.00000000000018</v>
+        <v>3.448275862069024</v>
       </c>
       <c r="L578" t="n">
         <v>38.09</v>
@@ -29757,7 +29779,7 @@
         <v>78.80000000000007</v>
       </c>
       <c r="K579" t="n">
-        <v>17.94871794871813</v>
+        <v>3.448275862069024</v>
       </c>
       <c r="L579" t="n">
         <v>38.10000000000001</v>
@@ -29808,7 +29830,7 @@
         <v>79.20000000000007</v>
       </c>
       <c r="K580" t="n">
-        <v>25.58139534883734</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L580" t="n">
         <v>38.15000000000001</v>
@@ -29859,7 +29881,7 @@
         <v>79.60000000000008</v>
       </c>
       <c r="K581" t="n">
-        <v>14.89361702127669</v>
+        <v>0</v>
       </c>
       <c r="L581" t="n">
         <v>38.09000000000001</v>
@@ -29910,7 +29932,7 @@
         <v>79.60000000000008</v>
       </c>
       <c r="K582" t="n">
-        <v>13.04347826086961</v>
+        <v>4.347826086956561</v>
       </c>
       <c r="L582" t="n">
         <v>38.09000000000001</v>
@@ -29961,7 +29983,7 @@
         <v>79.60000000000008</v>
       </c>
       <c r="K583" t="n">
-        <v>13.04347826086961</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L583" t="n">
         <v>38.10000000000001</v>
@@ -30012,7 +30034,7 @@
         <v>79.60000000000008</v>
       </c>
       <c r="K584" t="n">
-        <v>15.55555555555562</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L584" t="n">
         <v>38.13000000000001</v>
@@ -30063,7 +30085,7 @@
         <v>79.80000000000008</v>
       </c>
       <c r="K585" t="n">
-        <v>13.04347826086957</v>
+        <v>4.76190476190481</v>
       </c>
       <c r="L585" t="n">
         <v>38.13000000000001</v>
@@ -30114,7 +30136,7 @@
         <v>79.90000000000009</v>
       </c>
       <c r="K586" t="n">
-        <v>13.04347826086953</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L586" t="n">
         <v>38.15000000000001</v>
@@ -30165,7 +30187,7 @@
         <v>79.90000000000009</v>
       </c>
       <c r="K587" t="n">
-        <v>13.04347826086953</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L587" t="n">
         <v>38.10000000000001</v>
@@ -30216,7 +30238,7 @@
         <v>80.10000000000009</v>
       </c>
       <c r="K588" t="n">
-        <v>9.090909090909179</v>
+        <v>7.69230769230765</v>
       </c>
       <c r="L588" t="n">
         <v>38.11000000000001</v>
@@ -30267,7 +30289,7 @@
         <v>80.40000000000009</v>
       </c>
       <c r="K589" t="n">
-        <v>11.11111111111108</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>38.15000000000001</v>
@@ -30318,7 +30340,7 @@
         <v>80.60000000000009</v>
       </c>
       <c r="K590" t="n">
-        <v>6.382978723404172</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L590" t="n">
         <v>38.13000000000001</v>
@@ -30369,7 +30391,7 @@
         <v>80.60000000000009</v>
       </c>
       <c r="K591" t="n">
-        <v>-10.00000000000011</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L591" t="n">
         <v>38.15000000000001</v>
@@ -30420,7 +30442,7 @@
         <v>80.60000000000009</v>
       </c>
       <c r="K592" t="n">
-        <v>5.882352941176311</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L592" t="n">
         <v>38.17</v>
@@ -30471,7 +30493,7 @@
         <v>80.7000000000001</v>
       </c>
       <c r="K593" t="n">
-        <v>11.76470588235278</v>
+        <v>27.27272727272645</v>
       </c>
       <c r="L593" t="n">
         <v>38.2</v>
@@ -30522,7 +30544,7 @@
         <v>81.0000000000001</v>
       </c>
       <c r="K594" t="n">
-        <v>8.571428571428624</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L594" t="n">
         <v>38.2</v>
@@ -30573,7 +30595,7 @@
         <v>81.0000000000001</v>
       </c>
       <c r="K595" t="n">
-        <v>5.88235294117652</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L595" t="n">
         <v>38.22000000000001</v>

--- a/BackTest/2019-10-16 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-16 BackTest HDAC.xlsx
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -9096,14 +9096,20 @@
         <v>36.93333333333334</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>36.2</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9131,14 +9137,20 @@
         <v>36.92333333333334</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>36.4</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9166,14 +9178,20 @@
         <v>36.90500000000001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>36.6</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9201,14 +9219,20 @@
         <v>36.89166666666668</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>36.3</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9236,14 +9260,20 @@
         <v>36.87666666666668</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>36.4</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9277,12 +9307,12 @@
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M254" t="n">
@@ -9312,12 +9342,14 @@
         <v>36.84333333333335</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>36.2</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
@@ -9398,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
@@ -9433,14 +9465,12 @@
         <v>36.79666666666669</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
@@ -9474,14 +9504,12 @@
         <v>36.78166666666669</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
@@ -9515,14 +9543,12 @@
         <v>36.77000000000002</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
@@ -9556,14 +9582,12 @@
         <v>36.75500000000002</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
@@ -9597,14 +9621,12 @@
         <v>36.74000000000002</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
@@ -9638,14 +9660,12 @@
         <v>36.72166666666669</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
@@ -9679,14 +9699,12 @@
         <v>36.70666666666669</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
@@ -9720,14 +9738,12 @@
         <v>36.69166666666669</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
@@ -9761,14 +9777,12 @@
         <v>36.67500000000003</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
@@ -9802,14 +9816,12 @@
         <v>36.66166666666668</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
@@ -9843,14 +9855,12 @@
         <v>36.65166666666669</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
@@ -9884,14 +9894,12 @@
         <v>36.63833333333335</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
@@ -9925,14 +9933,12 @@
         <v>36.62833333333334</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
@@ -9966,14 +9972,12 @@
         <v>36.62500000000001</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
@@ -10319,14 +10323,12 @@
         <v>36.5366666666667</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
@@ -10360,14 +10362,12 @@
         <v>36.52833333333336</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
@@ -10401,14 +10401,12 @@
         <v>36.52333333333336</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
@@ -10442,14 +10440,12 @@
         <v>36.51833333333337</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
@@ -10483,14 +10479,12 @@
         <v>36.51500000000003</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
@@ -10524,14 +10518,12 @@
         <v>36.5066666666667</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
@@ -10565,14 +10557,12 @@
         <v>36.50166666666669</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
@@ -10606,14 +10596,12 @@
         <v>36.49833333333336</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
@@ -10647,14 +10635,12 @@
         <v>36.4916666666667</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
@@ -10688,14 +10674,12 @@
         <v>36.48833333333337</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
@@ -10729,14 +10713,12 @@
         <v>36.48500000000003</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
@@ -10770,14 +10752,12 @@
         <v>36.47833333333337</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
@@ -10811,14 +10791,12 @@
         <v>36.47500000000004</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
@@ -10852,14 +10830,12 @@
         <v>36.4666666666667</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
@@ -10893,14 +10869,12 @@
         <v>36.45833333333337</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
@@ -10934,14 +10908,12 @@
         <v>36.45000000000004</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
@@ -10975,14 +10947,12 @@
         <v>36.44833333333337</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
@@ -11016,14 +10986,12 @@
         <v>36.44500000000004</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
@@ -11057,14 +11025,12 @@
         <v>36.44500000000004</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
@@ -11098,14 +11064,12 @@
         <v>36.44333333333338</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
@@ -11139,14 +11103,12 @@
         <v>36.44500000000004</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
@@ -11180,14 +11142,12 @@
         <v>36.44666666666671</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
@@ -11221,14 +11181,12 @@
         <v>36.45000000000004</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
@@ -11301,14 +11259,12 @@
         <v>36.45333333333337</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
@@ -13097,14 +13053,12 @@
         <v>36.58833333333326</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -13138,14 +13092,12 @@
         <v>36.58999999999993</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -13179,14 +13131,12 @@
         <v>36.58833333333326</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -13220,14 +13170,12 @@
         <v>36.58833333333326</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
@@ -13261,14 +13209,12 @@
         <v>36.58499999999993</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
@@ -13302,14 +13248,12 @@
         <v>36.58333333333326</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
@@ -13343,14 +13287,12 @@
         <v>36.58333333333326</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -13384,14 +13326,12 @@
         <v>36.5816666666666</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
@@ -13425,14 +13365,12 @@
         <v>36.57833333333327</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -13466,14 +13404,12 @@
         <v>36.57333333333327</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -13507,14 +13443,12 @@
         <v>36.56833333333328</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
@@ -13548,14 +13482,12 @@
         <v>36.56333333333328</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -13589,14 +13521,12 @@
         <v>36.56166666666662</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -13630,14 +13560,12 @@
         <v>36.55666666666662</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -13671,14 +13599,12 @@
         <v>36.54999999999995</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
@@ -13712,14 +13638,12 @@
         <v>36.54666666666662</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
@@ -13831,14 +13755,12 @@
         <v>36.5133333333333</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>36</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
@@ -13872,14 +13794,12 @@
         <v>36.50666666666664</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>36</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
@@ -13913,14 +13833,12 @@
         <v>36.49499999999998</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
@@ -13954,14 +13872,12 @@
         <v>36.48333333333331</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>36</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -13995,14 +13911,12 @@
         <v>36.47166666666665</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>36</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
@@ -14036,14 +13950,12 @@
         <v>36.45999999999999</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>36</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
@@ -14077,14 +13989,12 @@
         <v>36.45499999999998</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
@@ -14118,14 +14028,12 @@
         <v>36.44666666666664</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -14159,14 +14067,12 @@
         <v>36.44166666666664</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -14200,14 +14106,12 @@
         <v>36.43333333333331</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -14241,14 +14145,12 @@
         <v>36.42499999999998</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
@@ -14282,14 +14184,12 @@
         <v>36.41833333333332</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -14323,14 +14223,12 @@
         <v>36.41499999999998</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -14364,14 +14262,12 @@
         <v>36.41499999999998</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
@@ -14405,14 +14301,12 @@
         <v>36.41166666666665</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
@@ -14446,14 +14340,12 @@
         <v>36.40999999999999</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
@@ -14487,14 +14379,12 @@
         <v>36.41499999999999</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>36.8</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
@@ -14528,14 +14418,12 @@
         <v>36.41666666666666</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>36.8</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
@@ -14569,14 +14457,12 @@
         <v>36.41833333333333</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
@@ -14649,14 +14535,12 @@
         <v>36.41833333333333</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
@@ -14690,14 +14574,12 @@
         <v>36.415</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
@@ -14731,14 +14613,12 @@
         <v>36.41166666666667</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
@@ -14772,14 +14652,12 @@
         <v>36.40833333333334</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
@@ -14813,14 +14691,12 @@
         <v>36.40833333333334</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
@@ -14854,14 +14730,12 @@
         <v>36.40666666666667</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
@@ -14895,14 +14769,12 @@
         <v>36.40333333333334</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
@@ -14936,14 +14808,12 @@
         <v>36.40166666666668</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
@@ -14977,14 +14847,12 @@
         <v>36.40333333333335</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
@@ -15018,14 +14886,12 @@
         <v>36.40333333333335</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>

--- a/BackTest/2019-10-16 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-16 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-135515.4781</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-135515.4781</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>36.1</v>
@@ -521,7 +521,7 @@
         <v>-135515.4781</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>36.1</v>
@@ -562,7 +562,7 @@
         <v>-135515.4781</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>36.1</v>
@@ -603,7 +603,7 @@
         <v>-135515.4781</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>36.1</v>
@@ -640,7 +640,7 @@
         <v>-135330.4781</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>36.1</v>
@@ -681,7 +681,7 @@
         <v>-134914.4781</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>36.2</v>
@@ -722,7 +722,7 @@
         <v>-135250.4781</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>36.3</v>
@@ -763,7 +763,7 @@
         <v>-135250.4781</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>36.2</v>
@@ -804,7 +804,7 @@
         <v>-135250.4781</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>36.2</v>
@@ -845,7 +845,7 @@
         <v>-135250.4781</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>36.2</v>
@@ -886,7 +886,7 @@
         <v>-135250.4781</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>36.2</v>
@@ -927,7 +927,7 @@
         <v>-135250.4781</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>36.2</v>
@@ -968,7 +968,7 @@
         <v>-135250.4781</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>36.2</v>
@@ -1009,7 +1009,7 @@
         <v>-134116.5101</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>36.2</v>
@@ -1050,9 +1050,11 @@
         <v>-100116.5101</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J17" t="n">
         <v>36.1</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>-100170.5101</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>36.4</v>
@@ -1130,9 +1132,11 @@
         <v>-100170.5101</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J19" t="n">
         <v>36.1</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>-100170.5101</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>36.3</v>
@@ -1210,7 +1214,7 @@
         <v>-100170.5101</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>36.3</v>
@@ -1251,7 +1255,7 @@
         <v>-100170.5101</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>36.3</v>
@@ -1292,7 +1296,7 @@
         <v>-100141.5101</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>36.3</v>
@@ -1333,7 +1337,7 @@
         <v>-100159.5101</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>36.5</v>
@@ -1374,7 +1378,7 @@
         <v>-100149.5101</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>36.3</v>
@@ -1415,7 +1419,7 @@
         <v>-100167.5101</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>36.5</v>
@@ -1456,9 +1460,11 @@
         <v>-100149.5101</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J27" t="n">
         <v>36.1</v>
       </c>
@@ -1495,9 +1501,11 @@
         <v>-100149.5101</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J28" t="n">
         <v>36.1</v>
       </c>
@@ -1534,9 +1542,11 @@
         <v>-100199.5101</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J29" t="n">
         <v>36.1</v>
       </c>
@@ -1573,9 +1583,11 @@
         <v>-61077.35040000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J30" t="n">
         <v>36.1</v>
       </c>
@@ -1612,9 +1624,11 @@
         <v>-61077.35040000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J31" t="n">
         <v>36.1</v>
       </c>
@@ -1651,9 +1665,11 @@
         <v>-61077.35040000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J32" t="n">
         <v>36.1</v>
       </c>
@@ -1690,9 +1706,11 @@
         <v>-61077.35040000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J33" t="n">
         <v>36.1</v>
       </c>
@@ -1729,9 +1747,11 @@
         <v>-61067.35040000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J34" t="n">
         <v>36.1</v>
       </c>
@@ -1768,9 +1788,11 @@
         <v>30044.20269999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J35" t="n">
         <v>36.1</v>
       </c>
@@ -1807,9 +1829,11 @@
         <v>30044.20269999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>36.7</v>
+      </c>
       <c r="J36" t="n">
         <v>36.1</v>
       </c>
@@ -1846,9 +1870,11 @@
         <v>19584.98139999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>36.7</v>
+      </c>
       <c r="J37" t="n">
         <v>36.1</v>
       </c>
@@ -1924,9 +1950,11 @@
         <v>33202.31109999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>36.7</v>
+      </c>
       <c r="J39" t="n">
         <v>36.1</v>
       </c>
@@ -1963,9 +1991,11 @@
         <v>475996.0871</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>36.7</v>
+      </c>
       <c r="J40" t="n">
         <v>36.1</v>
       </c>
@@ -2275,9 +2305,11 @@
         <v>505428.4719</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J48" t="n">
         <v>36.1</v>
       </c>
@@ -2314,9 +2346,11 @@
         <v>505388.4719</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J49" t="n">
         <v>36.1</v>
       </c>
@@ -2353,9 +2387,11 @@
         <v>505388.4719</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J50" t="n">
         <v>36.1</v>
       </c>
@@ -2392,9 +2428,11 @@
         <v>505388.4719</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J51" t="n">
         <v>36.1</v>
       </c>
@@ -2431,9 +2469,11 @@
         <v>505388.4719</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J52" t="n">
         <v>36.1</v>
       </c>
@@ -2470,9 +2510,11 @@
         <v>1067655.1103056</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J53" t="n">
         <v>36.1</v>
       </c>
@@ -4888,7 +4930,7 @@
         <v>2932184.530496269</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
@@ -4896,15 +4938,13 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.080872576177285</v>
-      </c>
-      <c r="M115" t="n">
-        <v>1.005540166204986</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4929,11 +4969,17 @@
         <v>3040742.425857598</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +5008,17 @@
         <v>3352459.854257599</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4995,11 +5047,17 @@
         <v>3693603.989110238</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5028,11 +5086,17 @@
         <v>3912290.265857598</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5061,11 +5125,17 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5094,11 +5164,17 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5127,11 +5203,17 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5160,11 +5242,17 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5193,11 +5281,17 @@
         <v>3547350.740571458</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5229,8 +5323,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5259,15 +5359,23 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>1.091952908587258</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.005540166204986</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5292,7 +5400,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5358,7 +5466,7 @@
         <v>3761854.715971459</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5391,7 +5499,7 @@
         <v>3761854.715971459</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5424,7 +5532,7 @@
         <v>3778039.295371459</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5457,7 +5565,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5490,7 +5598,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5523,7 +5631,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5556,7 +5664,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5589,7 +5697,7 @@
         <v>3772697.683471459</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5622,7 +5730,7 @@
         <v>3772697.683471459</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5688,7 +5796,7 @@
         <v>3812155.890471459</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5721,7 +5829,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5754,7 +5862,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5787,7 +5895,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5820,7 +5928,7 @@
         <v>3678480.765671459</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5853,7 +5961,7 @@
         <v>3543759.706671459</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5886,7 +5994,7 @@
         <v>3496990.024671459</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5919,7 +6027,7 @@
         <v>3440548.173071459</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5952,7 +6060,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5985,7 +6093,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6051,7 +6159,7 @@
         <v>3456763.036071459</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6084,7 +6192,7 @@
         <v>3456763.036071459</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6117,7 +6225,7 @@
         <v>3475182.154771459</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6183,7 +6291,7 @@
         <v>3475182.154771459</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6282,7 +6390,7 @@
         <v>3189999.119171459</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6315,7 +6423,7 @@
         <v>3201155.021471459</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6348,7 +6456,7 @@
         <v>3201155.021471459</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6381,7 +6489,7 @@
         <v>3199818.665671459</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6414,7 +6522,7 @@
         <v>3199284.76177146</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6447,7 +6555,7 @@
         <v>3161928.74747146</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6480,7 +6588,7 @@
         <v>3161928.74747146</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6513,7 +6621,7 @@
         <v>3146611.16997146</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6546,7 +6654,7 @@
         <v>3103968.08717146</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6579,7 +6687,7 @@
         <v>3122948.41007146</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6612,7 +6720,7 @@
         <v>3145664.01117146</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6645,7 +6753,7 @@
         <v>3145714.01117146</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6678,7 +6786,7 @@
         <v>3135714.01117146</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6711,7 +6819,7 @@
         <v>3135714.01117146</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6744,7 +6852,7 @@
         <v>3136616.149171459</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6777,7 +6885,7 @@
         <v>3159286.522619269</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6810,7 +6918,7 @@
         <v>3107480.323519269</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6843,7 +6951,7 @@
         <v>3060630.555419269</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6909,7 +7017,7 @@
         <v>3031601.130319269</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6942,7 +7050,7 @@
         <v>2889122.505619269</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6975,7 +7083,7 @@
         <v>2890026.231319269</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7008,7 +7116,7 @@
         <v>2891428.231319269</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7041,7 +7149,7 @@
         <v>2872143.488019269</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -15357,10 +15465,14 @@
         <v>1424537.137008028</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>36</v>
+      </c>
+      <c r="J432" t="n">
+        <v>36</v>
+      </c>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
@@ -15390,11 +15502,19 @@
         <v>1424575.137008028</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>36</v>
+      </c>
+      <c r="J433" t="n">
+        <v>36</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15423,11 +15543,19 @@
         <v>1424575.137008028</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J434" t="n">
+        <v>36</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15456,11 +15584,19 @@
         <v>1424575.137008028</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J435" t="n">
+        <v>36</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15489,11 +15625,19 @@
         <v>1424575.137008028</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J436" t="n">
+        <v>36</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15522,11 +15666,19 @@
         <v>1424575.137008028</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J437" t="n">
+        <v>36</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15555,11 +15707,19 @@
         <v>1429206.103908028</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J438" t="n">
+        <v>36</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15588,11 +15748,19 @@
         <v>1438290.999608028</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J439" t="n">
+        <v>36</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15621,11 +15789,19 @@
         <v>1479318.931595708</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J440" t="n">
+        <v>36</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15657,8 +15833,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>36</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15690,8 +15872,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>36</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15723,8 +15911,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>36</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15756,8 +15950,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>36</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15789,8 +15989,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>36</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15822,8 +16028,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>36</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15855,8 +16067,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>36</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15888,8 +16106,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>36</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15921,8 +16145,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>36</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15954,8 +16184,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>36</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15987,8 +16223,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>36</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16020,8 +16262,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>36</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16053,8 +16301,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>36</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16086,8 +16340,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>36</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16119,8 +16379,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>36</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16152,8 +16418,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>36</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16185,8 +16457,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>36</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16218,8 +16496,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>36</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16251,8 +16535,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>36</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16281,11 +16571,19 @@
         <v>1563975.894695708</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J460" t="n">
+        <v>36</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16317,8 +16615,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>36</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16350,8 +16654,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>36</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16383,8 +16693,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>36</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16416,8 +16732,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>36</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16449,8 +16771,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>36</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16482,8 +16810,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>36</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16515,8 +16849,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>36</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16548,8 +16888,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>36</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16581,8 +16927,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>36</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16614,8 +16966,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>36</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16647,8 +17005,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>36</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16680,8 +17044,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>36</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16713,8 +17083,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>36</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16746,8 +17122,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>36</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16779,8 +17161,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>36</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16812,8 +17200,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>36</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16845,8 +17239,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>36</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16878,8 +17278,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>36</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16911,8 +17317,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>36</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16944,8 +17356,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>36</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16977,8 +17395,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>36</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17010,8 +17434,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>36</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17043,8 +17473,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>36</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17076,8 +17512,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>36</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17109,8 +17551,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>36</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17142,8 +17590,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>36</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17175,8 +17629,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>36</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17208,8 +17668,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>36</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17241,8 +17707,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>36</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17274,8 +17746,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>36</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17307,8 +17785,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>36</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17340,8 +17824,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>36</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17373,8 +17863,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>36</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17406,8 +17902,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>36</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17439,8 +17941,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>36</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17472,8 +17980,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>36</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17505,8 +18019,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>36</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17538,8 +18058,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>36</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17571,8 +18097,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>36</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17604,8 +18136,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>36</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17637,8 +18175,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>36</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17670,8 +18214,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>36</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17703,8 +18253,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>36</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17736,8 +18292,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>36</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17769,8 +18331,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>36</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17802,8 +18370,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>36</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17835,8 +18409,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>36</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17868,8 +18448,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>36</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17901,8 +18487,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>36</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17934,8 +18526,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>36</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17967,8 +18565,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>36</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18000,8 +18604,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>36</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18033,8 +18643,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>36</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18066,8 +18682,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>36</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18099,8 +18721,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>36</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18132,8 +18760,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>36</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18165,8 +18799,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>36</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18198,8 +18838,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>36</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18231,8 +18877,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>36</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18264,8 +18916,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>36</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18297,8 +18955,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>36</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18330,8 +18994,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>36</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18363,8 +19033,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>36</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18396,8 +19072,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>36</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18429,8 +19111,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>36</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18462,8 +19150,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>36</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18495,8 +19189,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>36</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18528,8 +19228,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>36</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18561,8 +19267,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>36</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18594,8 +19306,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>36</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18627,8 +19345,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>36</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18660,8 +19384,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>36</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18693,8 +19423,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>36</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18726,8 +19462,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>36</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18759,8 +19501,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>36</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18792,8 +19540,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>36</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18825,8 +19579,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>36</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18858,8 +19618,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>36</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18891,8 +19657,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>36</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18924,8 +19696,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>36</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18957,8 +19735,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>36</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18990,8 +19774,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>36</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19023,8 +19813,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>36</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19056,8 +19852,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>36</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19089,8 +19891,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>36</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19122,8 +19930,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>36</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19155,8 +19969,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>36</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19188,8 +20008,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>36</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19221,8 +20047,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>36</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19254,8 +20086,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>36</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19287,8 +20125,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>36</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19320,8 +20164,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>36</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19353,8 +20203,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>36</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19386,8 +20242,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>36</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19419,8 +20281,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>36</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19452,8 +20320,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>36</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19485,8 +20359,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>36</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19518,8 +20398,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>36</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19551,8 +20437,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>36</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19584,8 +20476,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>36</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19617,8 +20515,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>36</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19650,8 +20554,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>36</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19683,8 +20593,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>36</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19716,8 +20632,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>36</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19749,8 +20671,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>36</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19782,8 +20710,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>36</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19815,8 +20749,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>36</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19848,8 +20788,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>36</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19881,8 +20827,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>36</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19914,8 +20866,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>36</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19947,8 +20905,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>36</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19980,8 +20944,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>36</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20013,8 +20983,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>36</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20046,8 +21022,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>36</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20079,8 +21061,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>36</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20112,8 +21100,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>36</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20145,8 +21139,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>36</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20178,8 +21178,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>36</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20211,8 +21217,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>36</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20244,8 +21256,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>36</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20277,8 +21295,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>36</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20310,8 +21334,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>36</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20343,8 +21373,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>36</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20376,8 +21412,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>36</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20409,8 +21451,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>36</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20442,8 +21490,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>36</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20475,8 +21529,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>36</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20508,8 +21568,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>36</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20541,8 +21607,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>36</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20574,8 +21646,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>36</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20607,8 +21685,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>36</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20640,8 +21724,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>36</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20673,8 +21763,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>36</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20706,8 +21802,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>36</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20739,8 +21841,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>36</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20772,8 +21880,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>36</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20805,8 +21919,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>36</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20838,8 +21958,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>36</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20871,8 +21997,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>36</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20904,8 +22036,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>36</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20937,8 +22075,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>36</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20970,8 +22114,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>36</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21003,8 +22153,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>36</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21036,8 +22192,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>36</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21069,8 +22231,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>36</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21102,8 +22270,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>36</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21135,8 +22309,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>36</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21168,8 +22348,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>36</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21201,8 +22387,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>36</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21234,8 +22426,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>36</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21267,8 +22465,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>36</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21300,8 +22504,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>36</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21333,8 +22543,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>36</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21366,8 +22582,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>36</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21399,8 +22621,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>36</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21432,8 +22660,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>36</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21465,8 +22699,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>36</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21498,8 +22738,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>36</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21531,8 +22777,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>36</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21564,8 +22816,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>36</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21597,8 +22855,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>36</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21630,8 +22894,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>36</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21663,8 +22933,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>36</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21696,8 +22972,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>36</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21729,8 +23011,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>36</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21762,8 +23050,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>36</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21795,8 +23089,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>36</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21828,8 +23128,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>36</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21861,8 +23167,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>36</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21894,8 +23206,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>36</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21927,8 +23245,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>36</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21960,8 +23284,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>36</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21993,8 +23323,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>36</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22026,8 +23362,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>36</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22059,8 +23401,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>36</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22092,8 +23440,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>36</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22125,8 +23479,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>36</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22158,8 +23518,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>36</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22191,8 +23557,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>36</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22224,8 +23596,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>36</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22257,8 +23635,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>36</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22290,8 +23674,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>36</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22323,14 +23713,20 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>36</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
       <c r="M643" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-16 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1542,11 +1542,9 @@
         <v>-100199.5101</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>36.1</v>
       </c>
@@ -1665,11 +1663,9 @@
         <v>-61077.35040000002</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>36.1</v>
       </c>
@@ -1706,11 +1702,9 @@
         <v>-61077.35040000002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>36.1</v>
       </c>
@@ -1747,11 +1741,9 @@
         <v>-61067.35040000002</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>36.1</v>
       </c>
@@ -1788,11 +1780,9 @@
         <v>30044.20269999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>36.1</v>
       </c>
@@ -1829,11 +1819,9 @@
         <v>30044.20269999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>36.1</v>
       </c>
@@ -1870,11 +1858,9 @@
         <v>19584.98139999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>36.1</v>
       </c>
@@ -1950,11 +1936,9 @@
         <v>33202.31109999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>36.1</v>
       </c>
@@ -1991,11 +1975,9 @@
         <v>475996.0871</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>36.1</v>
       </c>
@@ -2305,11 +2287,9 @@
         <v>505428.4719</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>36.1</v>
       </c>
@@ -2346,11 +2326,9 @@
         <v>505388.4719</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>36.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>36.1</v>
       </c>
@@ -2387,11 +2365,9 @@
         <v>505388.4719</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>36.1</v>
       </c>
@@ -2428,11 +2404,9 @@
         <v>505388.4719</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>36.1</v>
       </c>
@@ -2469,11 +2443,9 @@
         <v>505388.4719</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>36.1</v>
       </c>
@@ -2510,11 +2482,9 @@
         <v>1067655.1103056</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>36.1</v>
       </c>
@@ -2902,7 +2872,7 @@
         <v>1520360.32009627</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -2910,11 +2880,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>1.047631578947368</v>
       </c>
       <c r="M63" t="inlineStr"/>
     </row>
@@ -2941,17 +2911,11 @@
         <v>1520360.32009627</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2980,17 +2944,11 @@
         <v>1942490.98219627</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3019,17 +2977,11 @@
         <v>1890950.05829627</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3058,17 +3010,11 @@
         <v>1954654.55689627</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3097,17 +3043,11 @@
         <v>2301895.30217757</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3136,17 +3076,11 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3175,17 +3109,11 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3214,17 +3142,11 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3253,17 +3175,11 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3295,14 +3211,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3334,14 +3244,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3370,17 +3274,11 @@
         <v>2515285.35181585</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3412,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3448,17 +3340,11 @@
         <v>2368909.556615849</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3487,17 +3373,11 @@
         <v>2399352.44309523</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3526,17 +3406,11 @@
         <v>2276359.998295229</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3565,17 +3439,11 @@
         <v>2311172.525195229</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3604,17 +3472,11 @@
         <v>2286154.722013929</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3643,17 +3505,11 @@
         <v>2319270.278513929</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3685,14 +3541,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3724,14 +3574,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3760,17 +3604,11 @@
         <v>2074511.096313929</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3799,17 +3637,11 @@
         <v>2082765.579013929</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3838,17 +3670,11 @@
         <v>2082765.579013929</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3877,17 +3703,11 @@
         <v>2163649.797013929</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3916,17 +3736,11 @@
         <v>2153496.995013929</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3955,17 +3769,11 @@
         <v>2131700.448613929</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3994,17 +3802,11 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4033,17 +3835,11 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4072,17 +3868,11 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4111,17 +3901,11 @@
         <v>2113745.409513929</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4150,17 +3934,11 @@
         <v>2113745.409513929</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4189,17 +3967,11 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4228,17 +4000,11 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4267,17 +4033,11 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4306,17 +4066,11 @@
         <v>2132995.876115509</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4345,17 +4099,11 @@
         <v>2355632.235480439</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4384,17 +4132,11 @@
         <v>2462214.646480439</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4423,17 +4165,11 @@
         <v>2924078.581758819</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4465,14 +4201,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4504,14 +4234,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4543,14 +4267,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4582,14 +4300,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4621,14 +4333,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +4366,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4399,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4738,14 +4432,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4777,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4816,14 +4498,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4855,14 +4531,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4894,14 +4564,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4933,14 +4597,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4972,14 +4630,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5011,14 +4663,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5050,14 +4696,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +4729,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5128,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5167,14 +4795,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5206,14 +4828,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5245,14 +4861,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5284,14 +4894,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5323,14 +4927,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5359,23 +4957,15 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>1.091952908587258</v>
-      </c>
-      <c r="M126" t="n">
-        <v>1.005540166204986</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5400,7 +4990,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5532,7 +5122,7 @@
         <v>3778039.295371459</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5565,7 +5155,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5598,7 +5188,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5631,7 +5221,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5664,7 +5254,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5697,7 +5287,7 @@
         <v>3772697.683471459</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5730,7 +5320,7 @@
         <v>3772697.683471459</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5796,7 +5386,7 @@
         <v>3812155.890471459</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5829,7 +5419,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5862,7 +5452,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5895,7 +5485,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5928,7 +5518,7 @@
         <v>3678480.765671459</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5961,7 +5551,7 @@
         <v>3543759.706671459</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5994,7 +5584,7 @@
         <v>3496990.024671459</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6027,7 +5617,7 @@
         <v>3440548.173071459</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6060,7 +5650,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6093,7 +5683,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6159,7 +5749,7 @@
         <v>3456763.036071459</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6192,7 +5782,7 @@
         <v>3456763.036071459</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6225,7 +5815,7 @@
         <v>3475182.154771459</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6291,7 +5881,7 @@
         <v>3475182.154771459</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6390,7 +5980,7 @@
         <v>3189999.119171459</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6423,7 +6013,7 @@
         <v>3201155.021471459</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6456,7 +6046,7 @@
         <v>3201155.021471459</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6489,7 +6079,7 @@
         <v>3199818.665671459</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6522,7 +6112,7 @@
         <v>3199284.76177146</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6555,7 +6145,7 @@
         <v>3161928.74747146</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6588,7 +6178,7 @@
         <v>3161928.74747146</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6621,7 +6211,7 @@
         <v>3146611.16997146</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6654,7 +6244,7 @@
         <v>3103968.08717146</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6687,7 +6277,7 @@
         <v>3122948.41007146</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6720,7 +6310,7 @@
         <v>3145664.01117146</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6753,7 +6343,7 @@
         <v>3145714.01117146</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6786,7 +6376,7 @@
         <v>3135714.01117146</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6819,7 +6409,7 @@
         <v>3135714.01117146</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6852,7 +6442,7 @@
         <v>3136616.149171459</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6885,7 +6475,7 @@
         <v>3159286.522619269</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6918,7 +6508,7 @@
         <v>3107480.323519269</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6951,7 +6541,7 @@
         <v>3060630.555419269</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7017,7 +6607,7 @@
         <v>3031601.130319269</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7050,7 +6640,7 @@
         <v>2889122.505619269</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7083,7 +6673,7 @@
         <v>2890026.231319269</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7116,7 +6706,7 @@
         <v>2891428.231319269</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7149,7 +6739,7 @@
         <v>2872143.488019269</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -15465,14 +15055,10 @@
         <v>1424537.137008028</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>36</v>
-      </c>
-      <c r="J432" t="n">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
@@ -15502,19 +15088,11 @@
         <v>1424575.137008028</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>36</v>
-      </c>
-      <c r="J433" t="n">
-        <v>36</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15543,19 +15121,11 @@
         <v>1424575.137008028</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J434" t="n">
-        <v>36</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15584,19 +15154,11 @@
         <v>1424575.137008028</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J435" t="n">
-        <v>36</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15625,19 +15187,11 @@
         <v>1424575.137008028</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J436" t="n">
-        <v>36</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15666,19 +15220,11 @@
         <v>1424575.137008028</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J437" t="n">
-        <v>36</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15707,19 +15253,11 @@
         <v>1429206.103908028</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="J438" t="n">
-        <v>36</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15748,19 +15286,11 @@
         <v>1438290.999608028</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="J439" t="n">
-        <v>36</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15789,19 +15319,11 @@
         <v>1479318.931595708</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="J440" t="n">
-        <v>36</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15833,14 +15355,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>36</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15872,14 +15388,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>36</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15911,14 +15421,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>36</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15950,14 +15454,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>36</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15989,14 +15487,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>36</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16028,14 +15520,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>36</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16067,14 +15553,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>36</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16106,14 +15586,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>36</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16145,14 +15619,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>36</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16184,14 +15652,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>36</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16223,14 +15685,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>36</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16262,14 +15718,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>36</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16301,14 +15751,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>36</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16340,14 +15784,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>36</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16379,14 +15817,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>36</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16418,14 +15850,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>36</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16457,14 +15883,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>36</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16496,14 +15916,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>36</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16535,14 +15949,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>36</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16571,19 +15979,11 @@
         <v>1563975.894695708</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J460" t="n">
-        <v>36</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16615,14 +16015,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>36</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16654,14 +16048,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>36</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16693,14 +16081,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>36</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16732,14 +16114,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>36</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16771,14 +16147,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>36</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16810,14 +16180,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>36</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16849,14 +16213,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>36</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16888,14 +16246,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>36</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16927,14 +16279,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>36</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16966,14 +16312,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>36</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17005,14 +16345,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>36</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17044,14 +16378,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>36</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17083,14 +16411,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>36</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17122,14 +16444,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>36</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17161,14 +16477,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>36</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17200,14 +16510,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>36</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17239,14 +16543,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>36</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17278,14 +16576,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>36</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17317,14 +16609,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>36</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17356,14 +16642,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>36</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17395,14 +16675,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>36</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17434,14 +16708,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>36</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17473,14 +16741,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>36</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17512,14 +16774,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>36</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17551,14 +16807,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>36</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17590,14 +16840,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>36</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17629,14 +16873,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>36</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17668,14 +16906,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>36</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17707,14 +16939,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>36</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17746,14 +16972,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>36</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17785,14 +17005,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>36</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17824,14 +17038,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>36</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17863,14 +17071,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>36</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17902,14 +17104,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>36</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17941,14 +17137,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>36</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17980,14 +17170,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>36</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18019,14 +17203,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>36</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18058,14 +17236,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>36</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18097,14 +17269,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>36</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18136,14 +17302,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>36</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18175,14 +17335,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>36</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18214,14 +17368,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>36</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18253,14 +17401,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>36</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18292,14 +17434,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>36</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18331,14 +17467,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>36</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18370,14 +17500,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>36</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18409,14 +17533,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>36</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18448,14 +17566,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>36</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18487,14 +17599,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>36</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18526,14 +17632,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>36</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18565,14 +17665,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>36</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18604,14 +17698,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>36</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18643,14 +17731,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>36</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18682,14 +17764,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>36</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18721,14 +17797,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>36</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18760,14 +17830,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>36</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18799,14 +17863,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>36</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18838,14 +17896,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>36</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18877,14 +17929,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>36</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18916,14 +17962,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>36</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18955,14 +17995,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>36</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18994,14 +18028,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>36</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19033,14 +18061,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>36</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19072,14 +18094,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>36</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19111,14 +18127,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>36</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19150,14 +18160,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>36</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19189,14 +18193,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>36</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19228,14 +18226,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>36</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19267,14 +18259,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>36</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19306,14 +18292,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>36</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19345,14 +18325,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>36</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19384,14 +18358,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>36</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19423,14 +18391,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>36</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19462,14 +18424,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>36</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19501,14 +18457,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>36</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19540,14 +18490,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>36</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19579,14 +18523,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>36</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19618,14 +18556,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>36</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19657,14 +18589,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>36</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19696,14 +18622,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>36</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19735,14 +18655,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>36</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19774,14 +18688,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>36</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19813,14 +18721,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>36</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19852,14 +18754,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>36</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19891,14 +18787,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>36</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19930,14 +18820,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>36</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19969,14 +18853,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>36</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20008,14 +18886,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>36</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20047,14 +18919,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>36</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20086,14 +18952,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>36</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20125,14 +18985,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>36</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20164,14 +19018,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>36</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20203,14 +19051,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>36</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20242,14 +19084,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>36</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20281,14 +19117,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>36</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20320,14 +19150,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>36</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20359,14 +19183,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>36</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20398,14 +19216,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>36</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20437,14 +19249,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>36</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20476,14 +19282,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>36</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20515,14 +19315,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>36</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20554,14 +19348,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>36</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20593,14 +19381,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>36</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20632,14 +19414,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>36</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20671,14 +19447,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>36</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20710,14 +19480,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>36</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20749,14 +19513,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>36</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20788,14 +19546,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>36</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20827,14 +19579,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>36</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20866,14 +19612,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>36</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20905,14 +19645,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>36</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20944,14 +19678,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>36</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20983,14 +19711,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>36</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21022,14 +19744,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>36</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21061,14 +19777,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>36</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21100,14 +19810,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>36</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21139,14 +19843,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>36</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21178,14 +19876,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>36</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21217,14 +19909,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>36</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21256,14 +19942,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>36</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21295,14 +19975,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>36</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21334,14 +20008,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>36</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21373,14 +20041,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>36</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21412,14 +20074,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>36</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21451,14 +20107,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>36</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21490,14 +20140,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>36</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21529,14 +20173,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>36</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21568,14 +20206,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>36</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21607,14 +20239,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>36</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21646,14 +20272,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>36</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21685,14 +20305,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>36</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21724,14 +20338,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>36</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21763,14 +20371,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>36</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21802,14 +20404,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>36</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21841,14 +20437,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>36</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21880,14 +20470,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>36</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21919,14 +20503,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>36</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21958,14 +20536,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>36</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21997,14 +20569,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>36</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22036,14 +20602,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>36</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22075,14 +20635,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>36</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22114,14 +20668,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>36</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22153,14 +20701,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>36</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22192,14 +20734,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>36</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22231,14 +20767,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>36</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22270,14 +20800,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>36</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22309,14 +20833,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>36</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22348,14 +20866,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>36</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22387,14 +20899,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>36</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22426,14 +20932,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>36</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22465,14 +20965,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>36</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22504,14 +20998,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>36</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22543,14 +21031,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>36</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22582,14 +21064,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>36</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22621,14 +21097,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>36</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22660,14 +21130,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>36</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22699,14 +21163,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>36</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22738,14 +21196,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>36</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22777,14 +21229,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>36</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22816,14 +21262,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>36</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22855,14 +21295,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>36</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22894,14 +21328,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>36</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22933,14 +21361,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>36</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22972,14 +21394,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>36</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23011,14 +21427,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>36</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23050,14 +21460,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>36</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23089,14 +21493,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>36</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23128,14 +21526,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>36</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23167,14 +21559,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>36</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23203,17 +21589,11 @@
         <v>3076776.302656419</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>36</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23242,17 +21622,11 @@
         <v>3074421.969756419</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>36</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23281,17 +21655,11 @@
         <v>2948842.300156419</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>36</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23320,17 +21688,11 @@
         <v>2861801.092156419</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>36</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23359,17 +21721,11 @@
         <v>2861826.092156419</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>36</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23398,17 +21754,11 @@
         <v>2861783.092156419</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>36</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23437,17 +21787,11 @@
         <v>2896935.700702128</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>36</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23476,17 +21820,11 @@
         <v>2873726.660602129</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>36</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23515,17 +21853,11 @@
         <v>2873726.660602129</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>36</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23554,17 +21886,11 @@
         <v>3008475.886002128</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>36</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23593,17 +21919,11 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>36</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23635,14 +21955,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>36</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23671,17 +21985,11 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>36</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23710,23 +22018,17 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>36</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
       <c r="M643" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-16 BackTest HDAC.xlsx
@@ -1542,9 +1542,11 @@
         <v>-100199.5101</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J29" t="n">
         <v>36.1</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v>1520360.32009627</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -2880,11 +2882,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.047631578947368</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
     </row>
@@ -2911,11 +2913,17 @@
         <v>1520360.32009627</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2944,11 +2952,17 @@
         <v>1942490.98219627</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +2991,17 @@
         <v>1890950.05829627</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +3030,17 @@
         <v>1954654.55689627</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +3069,17 @@
         <v>2301895.30217757</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3076,11 +3108,17 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3109,11 +3147,17 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3142,11 +3186,17 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3175,11 +3225,17 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3211,8 +3267,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3244,8 +3306,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3274,11 +3342,17 @@
         <v>2515285.35181585</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3310,8 +3384,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3340,11 +3420,17 @@
         <v>2368909.556615849</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3373,11 +3459,17 @@
         <v>2399352.44309523</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3406,11 +3498,17 @@
         <v>2276359.998295229</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3439,11 +3537,17 @@
         <v>2311172.525195229</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3472,11 +3576,17 @@
         <v>2286154.722013929</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3505,11 +3615,17 @@
         <v>2319270.278513929</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3541,8 +3657,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3574,8 +3696,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3604,11 +3732,17 @@
         <v>2074511.096313929</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3637,11 +3771,17 @@
         <v>2082765.579013929</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3670,11 +3810,17 @@
         <v>2082765.579013929</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3703,11 +3849,17 @@
         <v>2163649.797013929</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3736,11 +3888,17 @@
         <v>2153496.995013929</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3769,11 +3927,17 @@
         <v>2131700.448613929</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +3966,17 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3835,11 +4005,17 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3868,11 +4044,17 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3901,11 +4083,17 @@
         <v>2113745.409513929</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3934,11 +4122,17 @@
         <v>2113745.409513929</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3967,11 +4161,17 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4000,11 +4200,17 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +4239,17 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4066,11 +4278,17 @@
         <v>2132995.876115509</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +4317,17 @@
         <v>2355632.235480439</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +4356,17 @@
         <v>2462214.646480439</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4165,11 +4395,17 @@
         <v>2924078.581758819</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4201,8 +4437,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4234,8 +4476,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4267,8 +4515,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4300,8 +4554,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4333,8 +4593,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4366,8 +4632,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4399,8 +4671,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4432,8 +4710,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4465,8 +4749,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4498,8 +4788,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4531,8 +4827,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4564,8 +4866,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4597,8 +4905,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4630,8 +4944,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4663,8 +4983,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4696,8 +5022,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4729,8 +5061,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +5100,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4792,15 +5136,23 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>1.094722991689751</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.005540166204986</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4825,7 +5177,7 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4858,7 +5210,7 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4891,7 +5243,7 @@
         <v>3547350.740571458</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4924,7 +5276,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4957,7 +5309,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4990,7 +5342,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5023,7 +5375,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5056,7 +5408,7 @@
         <v>3761854.715971459</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5089,7 +5441,7 @@
         <v>3761854.715971459</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5122,7 +5474,7 @@
         <v>3778039.295371459</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5155,7 +5507,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5188,7 +5540,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5221,7 +5573,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5254,7 +5606,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5287,7 +5639,7 @@
         <v>3772697.683471459</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5320,7 +5672,7 @@
         <v>3772697.683471459</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5353,7 +5705,7 @@
         <v>3812155.890471459</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5386,7 +5738,7 @@
         <v>3812155.890471459</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5419,7 +5771,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5452,7 +5804,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5485,7 +5837,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5518,7 +5870,7 @@
         <v>3678480.765671459</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5551,7 +5903,7 @@
         <v>3543759.706671459</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5584,7 +5936,7 @@
         <v>3496990.024671459</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5617,7 +5969,7 @@
         <v>3440548.173071459</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5650,7 +6002,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5683,7 +6035,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5716,7 +6068,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5749,7 +6101,7 @@
         <v>3456763.036071459</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -21589,7 +21941,7 @@
         <v>3076776.302656419</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21622,7 +21974,7 @@
         <v>3074421.969756419</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21655,7 +22007,7 @@
         <v>2948842.300156419</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21688,7 +22040,7 @@
         <v>2861801.092156419</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21721,7 +22073,7 @@
         <v>2861826.092156419</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21754,7 +22106,7 @@
         <v>2861783.092156419</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21787,7 +22139,7 @@
         <v>2896935.700702128</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21820,7 +22172,7 @@
         <v>2873726.660602129</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21853,7 +22205,7 @@
         <v>2873726.660602129</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21886,7 +22238,7 @@
         <v>3008475.886002128</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21919,7 +22271,7 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21985,7 +22337,7 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22018,7 +22370,7 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
